--- a/Oracle/3factor_mid_result.xlsx
+++ b/Oracle/3factor_mid_result.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="25종목" sheetId="1" r:id="rId1"/>
     <sheet name="100종목" sheetId="2" r:id="rId2"/>
+    <sheet name="50종목" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>kospi 12m rol</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +63,9 @@
   <si>
     <t>100-PORT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kospi 12m rol</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3577,6 +3580,1819 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6218-4F30-83A2-BEB412413F44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1816072191"/>
+        <c:axId val="1816075519"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1816072191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816075519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1816075519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816072191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>293334</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'100종목'!$B$1:$CW$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>20090227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20090331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20090430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20090529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20090630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20090731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20090831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20090930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20091030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20091130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20091230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20100129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20100226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20100331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20100430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20100531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20100630</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20100730</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20100831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20100930</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20101029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20101130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20101230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20110131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20110228</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20110331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20110429</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20110531</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20110630</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20110729</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20110831</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20110930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20111031</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20111130</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20111229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20120131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20120229</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20120330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20120430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20120531</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20120629</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20120731</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20120831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20120928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20121031</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20121130</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20121228</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20130131</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20130228</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20130329</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20130430</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20130531</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20130628</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20130731</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20130830</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20130930</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20131031</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20131129</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20131230</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20140129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20140228</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20140331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20140430</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20140530</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20140630</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20140731</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20140829</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20140930</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20141031</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20141128</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20141230</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20150130</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20150227</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20150430</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20150529</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20150630</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20150731</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20150831</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20150930</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20151030</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20151130</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20151230</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20160129</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20160229</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20160331</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20160429</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20160531</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20160630</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20160729</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20160831</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20160930</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20161031</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20161130</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20161229</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20170131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20170228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20170331</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20170428</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20170531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100종목'!$B$18:$CW$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.4969320140668714E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8301657583945112E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8435385017031725E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9359457082817397E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1339744075851477E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4116168024936546E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.5855585703102903E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.0436178975238333E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.4222630156276495E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4870218692803832E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2005554098771798E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4782071344273673E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.889117433667753E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.804631993159437E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.0311544376225639E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8487296864418976E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4338211806863805E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6825426759166549E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.407152623891462E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.812214178897416E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1930913081704051</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14275552213011022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5014535755094851E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11138701456291766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8361969741333812E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7552045944926791E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8371058522411783E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5179413365249435E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.070119027435303E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12448605202703988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13567706640999777</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8426658752770328E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4025511572303371E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2591288320201564E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13491261805371424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3953562275717597E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10924033452348669</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11650409164017328</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11819416115735726</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13981263361232232</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14627156506761152</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0301161861558077E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.9311002571429423E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17802761546795454</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22958456970436725</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25767434654351273</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19297776734060879</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26028621063487201</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27997905532111322</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37915011872311111</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49756756785755463</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.48797364821158773</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37140304246635414</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.42673411608588974</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29128698697717015</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22956444529319953</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.15085957250776016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.10231675222497061</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.3522857392935421E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10914098890750124</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.10783840937088507</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.873239487593231E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1955726084922347E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.4751316425571175E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4809246635993532E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0718705208062653E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14125800836521374</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.23009446226338781</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.27119091707127296</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.21625909657793307</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.28720315968175802</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.27388350017683671</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.27897458142801712</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32281728916150598</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.37635090315176289</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42704884172986568</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49108001950677527</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.45143149069419142</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.37849521010670584</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31369071080935551</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.27558992221254952</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.3115935787686952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.28860612443516254</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26995503652578645</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.20560626172591145</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.16896191878632916</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.12168152281707112</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6745640920226519E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.4227781874823799E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.7434515694135841E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.8393007616948545E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6092613697461529E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.4794900354118141E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.1029874952039913E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7983094094821803E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-7.1672444689565573E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.4565928223285791E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.2467464859762698E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.4814315935582254E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-8.2099547006189377E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6687-4C69-8BB8-65B5FF7D92AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1816072191"/>
+        <c:axId val="1816075519"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1816072191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816075519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1816075519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816072191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>ex</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'50종목'!$B$1:$CW$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>20090227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20090331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20090430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20090529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20090630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20090731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20090831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20090930</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20091030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20091130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20091230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20100129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20100226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20100331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20100430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20100531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20100630</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20100730</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20100831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20100930</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20101029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20101130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20101230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20110131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20110228</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20110331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20110429</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20110531</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20110630</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20110729</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20110831</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20110930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20111031</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20111130</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20111229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20120131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20120229</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20120330</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20120430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20120531</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20120629</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20120731</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20120831</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20120928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20121031</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20121130</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20121228</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20130131</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20130228</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20130329</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20130430</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20130531</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20130628</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20130731</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20130830</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20130930</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20131031</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20131129</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20131230</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20140129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20140228</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20140331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20140430</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20140530</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20140630</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20140731</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20140829</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20140930</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20141031</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20141128</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20141230</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20150130</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20150227</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20150430</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20150529</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20150630</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20150731</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20150831</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20150930</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20151030</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20151130</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20151230</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20160129</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20160229</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20160331</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20160429</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20160531</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20160630</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20160729</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20160831</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20160930</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20161031</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20161130</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20161229</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20170131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20170228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20170331</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20170428</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20170531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'50종목'!$B$7:$CW$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-1.7679110284468447E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0902314300044216E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3090882444171159E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.4067598403408015E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10005199228519279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.12097718075607788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.11042140067823059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.15643512521574365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11542990079231763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16087085420720482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11593163791926986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.7529428083144687E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.15439150762427323</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.17716762070878578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.8602364000236022E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.1734685835785665E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5710490466207094E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9736391995400355E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.5619415758290751E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8585693118154074E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13642344646431104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12037297781516654</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4262563700044675E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5357142750933432E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.944307759503479E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3634849472444373E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.049240619112183E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8647169621726993E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8388101828644272E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23109395160003388</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23083696151909883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17726075195440705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10614772516380944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15516183547183293</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21968846734741942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1749026822273082</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21598880055720326</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19256863130197066</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16099581090666348</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16917462518402082</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.17401887034437602</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3820823145574135E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10324700692599142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17280285789395111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.23880314902006816</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24661071038210869</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1685872274917275</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26123794015378232</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28528463757741163</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37661098105352975</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50141997735357013</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49666105540062744</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.36938990353983603</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39844072386982243</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29508334403776959</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.23842929348784159</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16126965429010243</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.11451621367759923</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.11081944646583297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.7282854346808501E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.1046440182646284E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.3104896597252158E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4.304384548765583E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7721510033719929E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.7680234201919385E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.8624384339769362E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.16079128396332698</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24827838482373776</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.27449623228874209</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.2284908987263069</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.32115905971609371</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.3370733160380841</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35851426123154506</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.3803050482321737</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.46876270549105969</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51630359748823729</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.61525368585617102</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.5603566667655191</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.45395478921044941</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.36417768041501952</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.34256361796959145</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.36168992207354678</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.33430066889715904</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.29213545009356701</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.22708274366798464</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20675776142160784</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.12878456603995914</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.6587676032263898E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.8391337479772893E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5198345182638535E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0877945492076E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1426694372059121E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.9646611146963422E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.7287887580984771E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.7149539790489783E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.0559263115614854E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.3475698687417399E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.7663569966603472E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.4041694677414904E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4.962017414127784E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30C3-4CB2-82E3-9A3AE8E078B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3775,7 +5591,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3810,7 +5626,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>293334</a:t>
+              <a:t>282934</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -3866,7 +5682,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'100종목'!$B$1:$CW$1</c:f>
+              <c:f>'50종목'!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4175,316 +5991,316 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100종목'!$B$18:$CW$18</c:f>
+              <c:f>'50종목'!$B$19:$CW$19</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>8.4969320140668714E-3</c:v>
+                  <c:v>-2.8593121168749014E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8301657583945112E-2</c:v>
+                  <c:v>-7.6917271659393549E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8435385017031725E-2</c:v>
+                  <c:v>2.1655024612019735E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9359457082817397E-2</c:v>
+                  <c:v>-1.0925441915989986E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1339744075851477E-2</c:v>
+                  <c:v>-6.7823116507007897E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.4116168024936546E-2</c:v>
+                  <c:v>-5.1443457439947271E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.5855585703102903E-3</c:v>
+                  <c:v>-4.3715498407030484E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.0436178975238333E-2</c:v>
+                  <c:v>-7.0214923911832372E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.4222630156276495E-3</c:v>
+                  <c:v>-1.4811481870342202E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.4870218692803832E-2</c:v>
+                  <c:v>-4.4400388069079977E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2005554098771798E-2</c:v>
+                  <c:v>2.1039152816238138E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4782071344273673E-2</c:v>
+                  <c:v>1.1058260628721728E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.889117433667753E-2</c:v>
+                  <c:v>-1.7805740108500778E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.804631993159437E-2</c:v>
+                  <c:v>-5.7834282390466507E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.0311544376225639E-2</c:v>
+                  <c:v>-5.3907442755170454E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8487296864418976E-3</c:v>
+                  <c:v>-4.8325588748734161E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4338211806863805E-2</c:v>
+                  <c:v>-6.1133923959979519E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6825426759166549E-2</c:v>
+                  <c:v>-4.0165135552359787E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.407152623891462E-2</c:v>
+                  <c:v>-5.3302682970262749E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.812214178897416E-2</c:v>
+                  <c:v>-8.8734539601424967E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1930913081704051</c:v>
+                  <c:v>9.2450963515894102E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14275552213011022</c:v>
+                  <c:v>0.1055303594727246</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5014535755094851E-2</c:v>
+                  <c:v>3.4207680451120881E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11138701456291766</c:v>
+                  <c:v>8.0580483826945937E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8361969741333812E-2</c:v>
+                  <c:v>5.3484444180702528E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.7552045944926791E-2</c:v>
+                  <c:v>2.5449590195614213E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.8371058522411783E-3</c:v>
+                  <c:v>8.9390057135032563E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.5179413365249435E-2</c:v>
+                  <c:v>-1.3864681273201285E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.070119027435303E-2</c:v>
+                  <c:v>9.2466390635919105E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.12448605202703988</c:v>
+                  <c:v>0.18529997657781494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13567706640999777</c:v>
+                  <c:v>0.24401900134114674</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.8426658752770328E-2</c:v>
+                  <c:v>0.18759787756972479</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4025511572303371E-2</c:v>
+                  <c:v>0.10101137512432179</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.2591288320201564E-2</c:v>
+                  <c:v>0.1085419151821565</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13491261805371424</c:v>
+                  <c:v>0.17259119896073372</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.3953562275717597E-2</c:v>
+                  <c:v>0.14906303700883783</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.10924033452348669</c:v>
+                  <c:v>0.20343716555102298</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.11650409164017328</c:v>
+                  <c:v>0.21205921730428556</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11819416115735726</c:v>
+                  <c:v>0.20869397017725133</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13981263361232232</c:v>
+                  <c:v>0.21199247604812588</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14627156506761152</c:v>
+                  <c:v>0.22082982767958759</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.0301161861558077E-2</c:v>
+                  <c:v>9.8365936263518861E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.9311002571429423E-2</c:v>
+                  <c:v>0.11606389952508622</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.17802761546795454</c:v>
+                  <c:v>0.1869517654285362</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22958456970436725</c:v>
+                  <c:v>0.27058173180999923</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.25767434654351273</c:v>
+                  <c:v>0.30994176880990754</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.19297776734060879</c:v>
+                  <c:v>0.24650942209377158</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.26028621063487201</c:v>
+                  <c:v>0.32505051861494327</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.27997905532111322</c:v>
+                  <c:v>0.32450441336882796</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.37915011872311111</c:v>
+                  <c:v>0.40488189209948622</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.49756756785755463</c:v>
+                  <c:v>0.52153015020209348</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.48797364821158773</c:v>
+                  <c:v>0.53452618268795393</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.37140304246635414</c:v>
+                  <c:v>0.42860604194375185</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.42673411608588974</c:v>
+                  <c:v>0.45129211389838697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.29128698697717015</c:v>
+                  <c:v>0.34995901560971876</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22956444529319953</c:v>
+                  <c:v>0.2956880676972955</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.15085957250776016</c:v>
+                  <c:v>0.21993843202634888</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.10231675222497061</c:v>
+                  <c:v>0.15678543612224183</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.3522857392935421E-2</c:v>
+                  <c:v>0.15642181976507352</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.10914098890750124</c:v>
+                  <c:v>0.1447176244481958</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10783840937088507</c:v>
+                  <c:v>0.15148311086246946</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.873239487593231E-2</c:v>
+                  <c:v>0.10676763404169332</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1955726084922347E-2</c:v>
+                  <c:v>4.1795761637745343E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.4751316425571175E-2</c:v>
+                  <c:v>7.0476147427287805E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.4809246635993532E-2</c:v>
+                  <c:v>8.9504517666091798E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.0718705208062653E-2</c:v>
+                  <c:v>7.9340286636478297E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.14125800836521374</c:v>
+                  <c:v>0.17067316366929242</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.23009446226338781</c:v>
+                  <c:v>0.25329821218831672</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.27119091707127296</c:v>
+                  <c:v>0.27365927102425069</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.21625909657793307</c:v>
+                  <c:v>0.22218516757472317</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.28720315968175802</c:v>
+                  <c:v>0.27965909553812007</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.27388350017683671</c:v>
+                  <c:v>0.26918757128986059</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.27897458142801712</c:v>
+                  <c:v>0.25238246384391272</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.32281728916150598</c:v>
+                  <c:v>0.30340886737551043</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.37635090315176289</c:v>
+                  <c:v>0.39807023428894461</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.42704884172986568</c:v>
+                  <c:v>0.45080245249176043</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.49108001950677527</c:v>
+                  <c:v>0.50704913299984411</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.45143149069419142</c:v>
+                  <c:v>0.48558780071286289</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.37849521010670584</c:v>
+                  <c:v>0.34027942610897011</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.31369071080935551</c:v>
+                  <c:v>0.28679531297753014</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.27558992221254952</c:v>
+                  <c:v>0.2482587801888394</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.3115935787686952</c:v>
+                  <c:v>0.29754398497735446</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.28860612443516254</c:v>
+                  <c:v>0.27744600472109937</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.26995503652578645</c:v>
+                  <c:v>0.26745366699042539</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.20560626172591145</c:v>
+                  <c:v>0.23161937521918474</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.16896191878632916</c:v>
+                  <c:v>0.20302230671690324</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.12168152281707112</c:v>
+                  <c:v>0.12642972780495287</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.6745640920226519E-2</c:v>
+                  <c:v>9.3137448674551315E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.4227781874823799E-2</c:v>
+                  <c:v>6.383334368130944E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.7434515694135841E-2</c:v>
+                  <c:v>7.8692950230611736E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.8393007616948545E-2</c:v>
+                  <c:v>9.2755066210965742E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6092613697461529E-2</c:v>
+                  <c:v>5.7336652533997556E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.4794900354118141E-4</c:v>
+                  <c:v>3.9653573307822265E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.1029874952039913E-2</c:v>
+                  <c:v>7.3689065399577869E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.7983094094821803E-2</c:v>
+                  <c:v>5.6141112950597094E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-7.1672444689565573E-3</c:v>
+                  <c:v>2.8857686347061984E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.4565928223285791E-3</c:v>
+                  <c:v>3.8480771019239635E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.2467464859762698E-2</c:v>
+                  <c:v>7.4819613650030092E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.4814315935582254E-2</c:v>
+                  <c:v>8.053315646348036E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-8.2099547006189377E-2</c:v>
+                  <c:v>-4.5149689996551112E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6687-4C69-8BB8-65B5FF7D92AC}"/>
+              <c16:uniqueId val="{00000000-3181-439C-9DBF-0908CC3DE0E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4571,7 +6387,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4844,6 +6660,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7478,6 +9374,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7625,6 +10553,75 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7909,7 +10906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GO22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13080,8 +16077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -17493,4 +20490,5030 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GO19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="B1" s="1">
+        <v>20090227</v>
+      </c>
+      <c r="C1" s="1">
+        <v>20090331</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20090430</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20090529</v>
+      </c>
+      <c r="F1" s="1">
+        <v>20090630</v>
+      </c>
+      <c r="G1" s="1">
+        <v>20090731</v>
+      </c>
+      <c r="H1" s="1">
+        <v>20090831</v>
+      </c>
+      <c r="I1" s="1">
+        <v>20090930</v>
+      </c>
+      <c r="J1" s="1">
+        <v>20091030</v>
+      </c>
+      <c r="K1" s="1">
+        <v>20091130</v>
+      </c>
+      <c r="L1" s="1">
+        <v>20091230</v>
+      </c>
+      <c r="M1" s="1">
+        <v>20100129</v>
+      </c>
+      <c r="N1" s="1">
+        <v>20100226</v>
+      </c>
+      <c r="O1" s="1">
+        <v>20100331</v>
+      </c>
+      <c r="P1" s="1">
+        <v>20100430</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>20100531</v>
+      </c>
+      <c r="R1" s="1">
+        <v>20100630</v>
+      </c>
+      <c r="S1" s="1">
+        <v>20100730</v>
+      </c>
+      <c r="T1" s="1">
+        <v>20100831</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20100930</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20101029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>20101130</v>
+      </c>
+      <c r="X1" s="1">
+        <v>20101230</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>20110131</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>20110228</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>20110331</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>20110429</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>20110531</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20110630</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>20110729</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>20110831</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>20110930</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>20111031</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>20111130</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>20111229</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>20120131</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>20120229</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>20120330</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>20120430</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>20120531</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>20120629</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>20120731</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>20120831</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>20120928</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>20121031</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>20121130</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>20121228</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>20130131</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>20130228</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>20130329</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>20130430</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>20130531</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>20130628</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>20130731</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>20130830</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>20130930</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>20131031</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>20131129</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>20131230</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>20140129</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>20140228</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>20140331</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>20140430</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>20140530</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>20140630</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>20140731</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>20140829</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>20140930</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>20141031</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>20141128</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>20141230</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>20150130</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>20150227</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>20150331</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>20150430</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>20150529</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>20150630</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>20150731</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>20150831</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>20150930</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>20151030</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>20151130</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>20151230</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>20160129</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>20160229</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>20160331</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>20160429</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>20160531</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>20160630</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>20160729</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>20160831</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>20160930</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>20161031</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>20161130</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>20161229</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>20170131</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>20170228</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>20170331</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>20170428</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>20170531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.6210665918837126</v>
+      </c>
+      <c r="C2">
+        <v>0.70790321539445655</v>
+      </c>
+      <c r="D2">
+        <v>0.75014105956274268</v>
+      </c>
+      <c r="E2">
+        <v>0.75371216293560561</v>
+      </c>
+      <c r="F2">
+        <v>0.82993217586511614</v>
+      </c>
+      <c r="G2">
+        <v>0.97655941354637643</v>
+      </c>
+      <c r="H2">
+        <v>1.079776698502279</v>
+      </c>
+      <c r="I2">
+        <v>1.1554355482507634</v>
+      </c>
+      <c r="J2">
+        <v>1.4201300918189499</v>
+      </c>
+      <c r="K2">
+        <v>1.4456308604458818</v>
+      </c>
+      <c r="L2">
+        <v>1.4965005736035641</v>
+      </c>
+      <c r="M2">
+        <v>1.378897006307493</v>
+      </c>
+      <c r="N2">
+        <v>1.5000329247528295</v>
+      </c>
+      <c r="O2">
+        <v>1.4033873294314663</v>
+      </c>
+      <c r="P2">
+        <v>1.2718058070923643</v>
+      </c>
+      <c r="Q2">
+        <v>1.1757731626417554</v>
+      </c>
+      <c r="R2">
+        <v>1.2217298409432622</v>
+      </c>
+      <c r="S2">
+        <v>1.1297381990509157</v>
+      </c>
+      <c r="T2">
+        <v>1.0947953638847887</v>
+      </c>
+      <c r="U2">
+        <v>1.1193384893075298</v>
+      </c>
+      <c r="V2">
+        <v>1.1912202898734099</v>
+      </c>
+      <c r="W2">
+        <v>1.2243700179994863</v>
+      </c>
+      <c r="X2">
+        <v>1.218823725167433</v>
+      </c>
+      <c r="Y2">
+        <v>1.2916196027283564</v>
+      </c>
+      <c r="Z2">
+        <v>1.2161823176008733</v>
+      </c>
+      <c r="AA2">
+        <v>1.2444693859467766</v>
+      </c>
+      <c r="AB2">
+        <v>1.2588483888008457</v>
+      </c>
+      <c r="AC2">
+        <v>1.3053891850723538</v>
+      </c>
+      <c r="AD2">
+        <v>1.236944220362836</v>
+      </c>
+      <c r="AE2">
+        <v>1.2125127179096593</v>
+      </c>
+      <c r="AF2">
+        <v>1.0788179601204992</v>
+      </c>
+      <c r="AG2">
+        <v>0.94491699638511151</v>
+      </c>
+      <c r="AH2">
+        <v>1.0138506067606681</v>
+      </c>
+      <c r="AI2">
+        <v>0.9700099231871806</v>
+      </c>
+      <c r="AJ2">
+        <v>0.89017064846416394</v>
+      </c>
+      <c r="AK2">
+        <v>0.94494934121842011</v>
+      </c>
+      <c r="AL2">
+        <v>1.0468983653895736</v>
+      </c>
+      <c r="AM2">
+        <v>0.95601651872596982</v>
+      </c>
+      <c r="AN2">
+        <v>0.9040440438614098</v>
+      </c>
+      <c r="AO2">
+        <v>0.86044145308919162</v>
+      </c>
+      <c r="AP2">
+        <v>0.8825719168463696</v>
+      </c>
+      <c r="AQ2">
+        <v>0.88223381664252487</v>
+      </c>
+      <c r="AR2">
+        <v>1.0133024131566772</v>
+      </c>
+      <c r="AS2">
+        <v>1.1280253157404003</v>
+      </c>
+      <c r="AT2">
+        <v>1.0015871934961738</v>
+      </c>
+      <c r="AU2">
+        <v>1.0462189649853049</v>
+      </c>
+      <c r="AV2">
+        <v>1.0938304468325175</v>
+      </c>
+      <c r="AW2">
+        <v>1.0031445093798412</v>
+      </c>
+      <c r="AX2">
+        <v>0.99814801132865427</v>
+      </c>
+      <c r="AY2">
+        <v>0.99545689261385084</v>
+      </c>
+      <c r="AZ2">
+        <v>0.99089803682157829</v>
+      </c>
+      <c r="BA2">
+        <v>1.0854801000287502</v>
+      </c>
+      <c r="BB2">
+        <v>1.0050215478880906</v>
+      </c>
+      <c r="BC2">
+        <v>1.0170245325426803</v>
+      </c>
+      <c r="BD2">
+        <v>1.0111489040060466</v>
+      </c>
+      <c r="BE2">
+        <v>1.000375711974191</v>
+      </c>
+      <c r="BF2">
+        <v>1.0617292344382496</v>
+      </c>
+      <c r="BG2">
+        <v>1.0579285012157891</v>
+      </c>
+      <c r="BH2">
+        <v>1.007155554442803</v>
+      </c>
+      <c r="BI2">
+        <v>0.98940334566806309</v>
+      </c>
+      <c r="BJ2">
+        <v>0.97705392081875542</v>
+      </c>
+      <c r="BK2">
+        <v>0.99038351231239619</v>
+      </c>
+      <c r="BL2">
+        <v>0.99890017566638645</v>
+      </c>
+      <c r="BM2">
+        <v>0.99695659778616263</v>
+      </c>
+      <c r="BN2">
+        <v>1.074538994912307</v>
+      </c>
+      <c r="BO2">
+        <v>1.0846851930220525</v>
+      </c>
+      <c r="BP2">
+        <v>1.0738075956726678</v>
+      </c>
+      <c r="BQ2">
+        <v>1.0115826055604518</v>
+      </c>
+      <c r="BR2">
+        <v>0.96765660635735351</v>
+      </c>
+      <c r="BS2">
+        <v>0.96865815430809799</v>
+      </c>
+      <c r="BT2">
+        <v>0.95239492079906929</v>
+      </c>
+      <c r="BU2">
+        <v>1.0041779357597302</v>
+      </c>
+      <c r="BV2">
+        <v>1.0029343582543346</v>
+      </c>
+      <c r="BW2">
+        <v>1.0279108183379415</v>
+      </c>
+      <c r="BX2">
+        <v>1.0843005622416266</v>
+      </c>
+      <c r="BY2">
+        <v>1.0600713798772905</v>
+      </c>
+      <c r="BZ2">
+        <v>1.0359552694272824</v>
+      </c>
+      <c r="CA2">
+        <v>0.9778625512976129</v>
+      </c>
+      <c r="CB2">
+        <v>0.9385798679261701</v>
+      </c>
+      <c r="CC2">
+        <v>0.97164482770569627</v>
+      </c>
+      <c r="CD2">
+        <v>1.033108840732426</v>
+      </c>
+      <c r="CE2">
+        <v>1.005649289673765</v>
+      </c>
+      <c r="CF2">
+        <v>1.0238673202512023</v>
+      </c>
+      <c r="CG2">
+        <v>0.98091583472702515</v>
+      </c>
+      <c r="CH2">
+        <v>0.96518279786484051</v>
+      </c>
+      <c r="CI2">
+        <v>0.97786411762688452</v>
+      </c>
+      <c r="CJ2">
+        <v>0.93746621097514526</v>
+      </c>
+      <c r="CK2">
+        <v>0.93786646491393988</v>
+      </c>
+      <c r="CL2">
+        <v>0.94993250409796559</v>
+      </c>
+      <c r="CM2">
+        <v>0.99311876896402262</v>
+      </c>
+      <c r="CN2">
+        <v>1.0479837650464339</v>
+      </c>
+      <c r="CO2">
+        <v>1.0411756614241825</v>
+      </c>
+      <c r="CP2">
+        <v>0.98951450378670303</v>
+      </c>
+      <c r="CQ2">
+        <v>0.99573788761878945</v>
+      </c>
+      <c r="CR2">
+        <v>1.0332175943629514</v>
+      </c>
+      <c r="CS2">
+        <v>1.0813311297762624</v>
+      </c>
+      <c r="CT2">
+        <v>1.091294230588628</v>
+      </c>
+      <c r="CU2">
+        <v>1.082360898865145</v>
+      </c>
+      <c r="CV2">
+        <v>1.1059549181355468</v>
+      </c>
+      <c r="CW2">
+        <v>1.1835131592215384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="2"/>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="2"/>
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4" s="2"/>
+      <c r="FG4" s="2"/>
+      <c r="FH4" s="2"/>
+      <c r="FI4" s="2"/>
+      <c r="FJ4" s="2"/>
+      <c r="FK4" s="2"/>
+      <c r="FL4" s="2"/>
+      <c r="FM4" s="2"/>
+      <c r="FN4" s="2"/>
+      <c r="FO4" s="2"/>
+      <c r="FP4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="2"/>
+      <c r="FS4" s="2"/>
+      <c r="FT4" s="2"/>
+      <c r="FU4" s="2"/>
+      <c r="FV4" s="2"/>
+      <c r="FW4" s="2"/>
+      <c r="FX4" s="2"/>
+      <c r="FY4" s="2"/>
+      <c r="FZ4" s="2"/>
+      <c r="GA4" s="2"/>
+      <c r="GB4" s="2"/>
+      <c r="GC4" s="2"/>
+      <c r="GD4" s="2"/>
+      <c r="GE4" s="2"/>
+      <c r="GF4" s="2"/>
+      <c r="GG4" s="2"/>
+      <c r="GH4" s="2"/>
+      <c r="GI4" s="2"/>
+      <c r="GJ4" s="2"/>
+      <c r="GK4" s="2"/>
+      <c r="GL4" s="2"/>
+      <c r="GM4" s="2"/>
+      <c r="GN4" s="2"/>
+      <c r="GO4" s="2"/>
+    </row>
+    <row r="5" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:BM5" si="0">CH11</f>
+        <v>0.98190853110668697</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.0494797932464801</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.0559092162116199</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.96352648794296902</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.93744316027867303</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.89850260369662205</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.96396866585623098</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.72534691322992495</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.00093798368958</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.0283792102727001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.0101469472761799</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.93981626991154998</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.1602732396842901</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1.1134452192481099</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.99057451187788204</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0.99100158734749999</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1.09889229798139</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1.0179831062661799</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.99344905541299</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.94730716267022697</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.98564030189775897</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>1.10506895055253</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0.93756241649782501</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0.98695777759317505</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>1.0573024105042601</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>1.07438512669248</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>0.94104177265087197</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>1.06327951876764</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>0.99318024216220202</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0.98919397635578699</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>1.08606949327485</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>1.0861561058966001</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0.99833476112035302</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>1.0461836451874</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>1.0214368660545801</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>0.93618492193175995</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>1.0673310310345301</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>1.0592062267364399</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>0.97316510440115001</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>1.0014758710928</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>1.1242258952136399</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>0.89740702017579699</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="0"/>
+        <v>0.93059858621201197</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="0"/>
+        <v>1.08404664823716</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="0"/>
+        <v>1.00294620704485</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="0"/>
+        <v>1.0319459642393201</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="0"/>
+        <v>1.03063364077236</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="0"/>
+        <v>1.05576084885094</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="0"/>
+        <v>0.97072850644674102</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="0"/>
+        <v>0.98216213736123503</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="0"/>
+        <v>0.94079712962858997</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="0"/>
+        <v>1.02771334026283</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="0"/>
+        <v>1.00661404323298</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="0"/>
+        <v>1.0591346903386401</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="0"/>
+        <v>1.0841874416980599</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="0"/>
+        <v>1.03368071246006</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="0"/>
+        <v>1.04534723854301</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="0"/>
+        <v>1.0076708858288399</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="0"/>
+        <v>1.0322376767966699</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="0"/>
+        <v>1.0716677879797201</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="0"/>
+        <v>1.03776805030162</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="0"/>
+        <v>1.06824033894715</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="0"/>
+        <v>0.99742403667086099</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" si="0"/>
+        <v>0.892778105667278</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" ref="BN5:DH5" si="1">ET11</f>
+        <v>1.03668170352691</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" si="1"/>
+        <v>0.97740010309306602</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" si="1"/>
+        <v>1.0282220727945</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="1"/>
+        <v>1.02049181030479</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="1"/>
+        <v>1.00213651570241</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" si="1"/>
+        <v>0.96085627338304103</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="1"/>
+        <v>1.00334840904195</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" si="1"/>
+        <v>1.04347701601382</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" si="1"/>
+        <v>1.0332447208455999</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" si="1"/>
+        <v>1.0124512443485001</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" si="1"/>
+        <v>1.0335944861372</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" si="1"/>
+        <v>0.99419915518409996</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" si="1"/>
+        <v>1.0376627182940601</v>
+      </c>
+      <c r="CA5">
+        <f t="shared" si="1"/>
+        <v>1.04629068891902</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" si="1"/>
+        <v>1.0492613433666</v>
+      </c>
+      <c r="CC5">
+        <f t="shared" si="1"/>
+        <v>1.0061481454383601</v>
+      </c>
+      <c r="CD5">
+        <f t="shared" si="1"/>
+        <v>0.96582863513960004</v>
+      </c>
+      <c r="CE5">
+        <f t="shared" si="1"/>
+        <v>1.02218042821671</v>
+      </c>
+      <c r="CF5">
+        <f t="shared" si="1"/>
+        <v>1.0566825829184701</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="1"/>
+        <v>1.05919032024241</v>
+      </c>
+      <c r="CH5">
+        <f t="shared" si="1"/>
+        <v>1.06873780553984</v>
+      </c>
+      <c r="CI5">
+        <f t="shared" si="1"/>
+        <v>1.1165907694235</v>
+      </c>
+      <c r="CJ5">
+        <f t="shared" si="1"/>
+        <v>1.04910889243316</v>
+      </c>
+      <c r="CK5">
+        <f t="shared" si="1"/>
+        <v>1.04139596983375</v>
+      </c>
+      <c r="CL5">
+        <f t="shared" si="1"/>
+        <v>0.96665702426108202</v>
+      </c>
+      <c r="CM5">
+        <f t="shared" si="1"/>
+        <v>0.94719662103408098</v>
+      </c>
+      <c r="CN5">
+        <f t="shared" si="1"/>
+        <v>1.0065292897285301</v>
+      </c>
+      <c r="CO5">
+        <f t="shared" si="1"/>
+        <v>1.0361633260701</v>
+      </c>
+      <c r="CP5">
+        <f t="shared" si="1"/>
+        <v>0.95997805022628502</v>
+      </c>
+      <c r="CQ5">
+        <f t="shared" si="1"/>
+        <v>1.01532430636858</v>
+      </c>
+      <c r="CR5">
+        <f t="shared" si="1"/>
+        <v>0.99046003924405102</v>
+      </c>
+      <c r="CS5">
+        <f t="shared" si="1"/>
+        <v>0.991975842456427</v>
+      </c>
+      <c r="CT5">
+        <f t="shared" si="1"/>
+        <v>1.0618860843542299</v>
+      </c>
+      <c r="CU5">
+        <f t="shared" si="1"/>
+        <v>1.00501754742364</v>
+      </c>
+      <c r="CV5">
+        <f t="shared" si="1"/>
+        <v>0.98830574760091905</v>
+      </c>
+      <c r="CW5">
+        <f t="shared" si="1"/>
+        <v>0.992996576960953</v>
+      </c>
+      <c r="CX5">
+        <f t="shared" si="1"/>
+        <v>1.03785696117851</v>
+      </c>
+      <c r="CY5">
+        <f t="shared" si="1"/>
+        <v>0.98454279000786005</v>
+      </c>
+      <c r="CZ5">
+        <f t="shared" si="1"/>
+        <v>0.99121812588121205</v>
+      </c>
+      <c r="DA5">
+        <f t="shared" si="1"/>
+        <v>0.95472096936929496</v>
+      </c>
+      <c r="DB5">
+        <f t="shared" si="1"/>
+        <v>1.01259387640365</v>
+      </c>
+      <c r="DC5">
+        <f t="shared" si="1"/>
+        <v>1.0340887469053299</v>
+      </c>
+      <c r="DD5">
+        <f t="shared" si="1"/>
+        <v>1.02762179533441</v>
+      </c>
+      <c r="DE5">
+        <f t="shared" si="1"/>
+        <v>0.99832683709339798</v>
+      </c>
+      <c r="DF5">
+        <f t="shared" si="1"/>
+        <v>1.0196727431337</v>
+      </c>
+      <c r="DG5">
+        <f t="shared" si="1"/>
+        <v>1.04081990475798</v>
+      </c>
+      <c r="DH5">
+        <f t="shared" si="1"/>
+        <v>1.0357882037316199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:BM6" ca="1" si="2">PRODUCT(OFFSET(B5,0,0,1,12))</f>
+        <v>0.60338748159924416</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71299344682446097</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.7564501478071598</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.7096445645321976</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72988018357992335</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85558223279029855</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96935529782404839</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99900042303501979</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3047001910266323</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.284760006238677</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3805689356842943</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2813675782243483</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3456414171285562</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2262197087226805</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1832034430921283</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1240384768059697</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2060193504770551</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0900018070555153</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.059175948126498</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1579241824256838</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3276437363377209</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3447429958146528</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2730862888674777</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3869767454792898</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.315625395195908</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.328104235419221</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3093407949919675</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3540363546940808</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2753323221914803</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4436066695096932</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3096549216395981</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1221777483395186</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1199983319244775</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1251717586590135</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1098591158115834</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1198520234457283</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2628871659467769</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1485851500279405</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0650398547680733</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0296160782732124</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0565907871907456</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94605463978809901</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1165494200826687</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3008281736343514</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2403903425162419</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2928296753674136</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.262417674324245</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2643824495336236</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2834326489060659</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3720678736673806</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4923180141751484</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5821411554293776</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3744114514279266</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4154652564125028</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3062322480438162</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2388050054620325</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2229988887283521</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1724447148933883</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.117975000908636</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0866862000148716</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0581003610014017</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0534884089096483</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99846973721150989</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0346781078198826</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ref="BN6:CW6" ca="1" si="3">PRODUCT(OFFSET(BN5,0,0,1,12))</f>
+        <v>1.1522192291142264</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1533095773618218</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2345988796359948</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2598609903841895</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2421528386460956</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1971490530344049</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.273553980515163</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3412512517978143</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3614486194858797</v>
+      </c>
+      <c r="BW6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4082158665701152</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5530632677326863</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5763749773655278</v>
+      </c>
+      <c r="BZ6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6512089552834535</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.538219218063132</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3925346571366195</v>
+      </c>
+      <c r="CC6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3358225081207158</v>
+      </c>
+      <c r="CD6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3756724587020175</v>
+      </c>
+      <c r="CE6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3673392117473118</v>
+      </c>
+      <c r="CF6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3581679891483613</v>
+      </c>
+      <c r="CG6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2730512848205922</v>
+      </c>
+      <c r="CH6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1922655415328252</v>
+      </c>
+      <c r="CI6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1846218790484924</v>
+      </c>
+      <c r="CJ6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0662507770151044</v>
+      </c>
+      <c r="CK6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0044541409462038</v>
+      </c>
+      <c r="CL6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95777163784594288</v>
+      </c>
+      <c r="CM6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0283171141466612</v>
+      </c>
+      <c r="CN6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0688617105385099</v>
+      </c>
+      <c r="CO6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0526023557962416</v>
+      </c>
+      <c r="CP6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9698678926397396</v>
+      </c>
+      <c r="CQ6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0230257751997742</v>
+      </c>
+      <c r="CR6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0419325483420003</v>
+      </c>
+      <c r="CS6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0810255371451063</v>
+      </c>
+      <c r="CT6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0879466607198862</v>
+      </c>
+      <c r="CU6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0446973288985415</v>
+      </c>
+      <c r="CV6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0819132234581319</v>
+      </c>
+      <c r="CW6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1338929850802606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <f ca="1">B6-B$2</f>
+        <v>-1.7679110284468447E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <f ca="1">C6-C$2</f>
+        <v>5.0902314300044216E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:BO7" ca="1" si="4">D6-D$2</f>
+        <v>6.3090882444171159E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.4067598403408015E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.10005199228519279</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.12097718075607788</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.11042140067823059</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.15643512521574365</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.11542990079231763</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.16087085420720482</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.11593163791926986</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.7529428083144687E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.15439150762427323</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.17716762070878578</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.8602364000236022E-2</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.1734685835785665E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.5710490466207094E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.9736391995400355E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.5619415758290751E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8585693118154074E-2</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.13642344646431104</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12037297781516654</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4262563700044675E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.5357142750933432E-2</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.944307759503479E-2</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3634849472444373E-2</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.049240619112183E-2</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8647169621726993E-2</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8388101828644272E-2</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.23109395160003388</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.23083696151909883</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17726075195440705</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.10614772516380944</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15516183547183293</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.21968846734741942</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1749026822273082</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.21598880055720326</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19256863130197066</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16099581090666348</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16917462518402082</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17401887034437602</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3820823145574135E-2</v>
+      </c>
+      <c r="AR7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.10324700692599142</v>
+      </c>
+      <c r="AS7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17280285789395111</v>
+      </c>
+      <c r="AT7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.23880314902006816</v>
+      </c>
+      <c r="AU7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.24661071038210869</v>
+      </c>
+      <c r="AV7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1685872274917275</v>
+      </c>
+      <c r="AW7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.26123794015378232</v>
+      </c>
+      <c r="AX7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.28528463757741163</v>
+      </c>
+      <c r="AY7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.37661098105352975</v>
+      </c>
+      <c r="AZ7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.50141997735357013</v>
+      </c>
+      <c r="BA7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.49666105540062744</v>
+      </c>
+      <c r="BB7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.36938990353983603</v>
+      </c>
+      <c r="BC7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.39844072386982243</v>
+      </c>
+      <c r="BD7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.29508334403776959</v>
+      </c>
+      <c r="BE7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.23842929348784159</v>
+      </c>
+      <c r="BF7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16126965429010243</v>
+      </c>
+      <c r="BG7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11451621367759923</v>
+      </c>
+      <c r="BH7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11081944646583297</v>
+      </c>
+      <c r="BI7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.7282854346808501E-2</v>
+      </c>
+      <c r="BJ7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.1046440182646284E-2</v>
+      </c>
+      <c r="BK7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3104896597252158E-2</v>
+      </c>
+      <c r="BL7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.304384548765583E-4</v>
+      </c>
+      <c r="BM7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7721510033719929E-2</v>
+      </c>
+      <c r="BN7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.7680234201919385E-2</v>
+      </c>
+      <c r="BO7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8624384339769362E-2</v>
+      </c>
+      <c r="BP7" s="3">
+        <f t="shared" ref="BP7:CW7" ca="1" si="5">BP6-BP$2</f>
+        <v>0.16079128396332698</v>
+      </c>
+      <c r="BQ7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24827838482373776</v>
+      </c>
+      <c r="BR7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.27449623228874209</v>
+      </c>
+      <c r="BS7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2284908987263069</v>
+      </c>
+      <c r="BT7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32115905971609371</v>
+      </c>
+      <c r="BU7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3370733160380841</v>
+      </c>
+      <c r="BV7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.35851426123154506</v>
+      </c>
+      <c r="BW7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3803050482321737</v>
+      </c>
+      <c r="BX7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.46876270549105969</v>
+      </c>
+      <c r="BY7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.51630359748823729</v>
+      </c>
+      <c r="BZ7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.61525368585617102</v>
+      </c>
+      <c r="CA7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5603566667655191</v>
+      </c>
+      <c r="CB7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.45395478921044941</v>
+      </c>
+      <c r="CC7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.36417768041501952</v>
+      </c>
+      <c r="CD7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34256361796959145</v>
+      </c>
+      <c r="CE7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.36168992207354678</v>
+      </c>
+      <c r="CF7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.33430066889715904</v>
+      </c>
+      <c r="CG7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.29213545009356701</v>
+      </c>
+      <c r="CH7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.22708274366798464</v>
+      </c>
+      <c r="CI7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20675776142160784</v>
+      </c>
+      <c r="CJ7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12878456603995914</v>
+      </c>
+      <c r="CK7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.6587676032263898E-2</v>
+      </c>
+      <c r="CL7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8391337479772893E-3</v>
+      </c>
+      <c r="CM7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.5198345182638535E-2</v>
+      </c>
+      <c r="CN7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0877945492076E-2</v>
+      </c>
+      <c r="CO7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1426694372059121E-2</v>
+      </c>
+      <c r="CP7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.9646611146963422E-2</v>
+      </c>
+      <c r="CQ7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7287887580984771E-2</v>
+      </c>
+      <c r="CR7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.7149539790489783E-3</v>
+      </c>
+      <c r="CS7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.0559263115614854E-4</v>
+      </c>
+      <c r="CT7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.3475698687417399E-3</v>
+      </c>
+      <c r="CU7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.7663569966603472E-2</v>
+      </c>
+      <c r="CV7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.4041694677414904E-2</v>
+      </c>
+      <c r="CW7" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.962017414127784E-2</v>
+      </c>
+      <c r="CX7" s="3"/>
+    </row>
+    <row r="8" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+    </row>
+    <row r="9" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="3"/>
+      <c r="CN9" s="3"/>
+      <c r="CO9" s="3"/>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="3"/>
+      <c r="CS9" s="3"/>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3"/>
+      <c r="CV9" s="3"/>
+      <c r="CW9" s="3"/>
+    </row>
+    <row r="10" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>17</v>
+      </c>
+      <c r="T10">
+        <v>18</v>
+      </c>
+      <c r="U10">
+        <v>19</v>
+      </c>
+      <c r="V10">
+        <v>20</v>
+      </c>
+      <c r="W10">
+        <v>21</v>
+      </c>
+      <c r="X10">
+        <v>22</v>
+      </c>
+      <c r="Y10">
+        <v>23</v>
+      </c>
+      <c r="Z10">
+        <v>24</v>
+      </c>
+      <c r="AA10">
+        <v>25</v>
+      </c>
+      <c r="AB10">
+        <v>26</v>
+      </c>
+      <c r="AC10">
+        <v>27</v>
+      </c>
+      <c r="AD10">
+        <v>28</v>
+      </c>
+      <c r="AE10">
+        <v>29</v>
+      </c>
+      <c r="AF10">
+        <v>30</v>
+      </c>
+      <c r="AG10">
+        <v>31</v>
+      </c>
+      <c r="AH10">
+        <v>32</v>
+      </c>
+      <c r="AI10">
+        <v>33</v>
+      </c>
+      <c r="AJ10">
+        <v>34</v>
+      </c>
+      <c r="AK10">
+        <v>35</v>
+      </c>
+      <c r="AL10">
+        <v>36</v>
+      </c>
+      <c r="AM10">
+        <v>37</v>
+      </c>
+      <c r="AN10">
+        <v>38</v>
+      </c>
+      <c r="AO10">
+        <v>39</v>
+      </c>
+      <c r="AP10">
+        <v>40</v>
+      </c>
+      <c r="AQ10">
+        <v>41</v>
+      </c>
+      <c r="AR10">
+        <v>42</v>
+      </c>
+      <c r="AS10">
+        <v>43</v>
+      </c>
+      <c r="AT10">
+        <v>44</v>
+      </c>
+      <c r="AU10">
+        <v>45</v>
+      </c>
+      <c r="AV10">
+        <v>46</v>
+      </c>
+      <c r="AW10">
+        <v>47</v>
+      </c>
+      <c r="AX10">
+        <v>48</v>
+      </c>
+      <c r="AY10">
+        <v>49</v>
+      </c>
+      <c r="AZ10">
+        <v>50</v>
+      </c>
+      <c r="BA10">
+        <v>51</v>
+      </c>
+      <c r="BB10">
+        <v>52</v>
+      </c>
+      <c r="BC10">
+        <v>53</v>
+      </c>
+      <c r="BD10">
+        <v>54</v>
+      </c>
+      <c r="BE10">
+        <v>55</v>
+      </c>
+      <c r="BF10">
+        <v>56</v>
+      </c>
+      <c r="BG10">
+        <v>57</v>
+      </c>
+      <c r="BH10">
+        <v>58</v>
+      </c>
+      <c r="BI10">
+        <v>59</v>
+      </c>
+      <c r="BJ10">
+        <v>60</v>
+      </c>
+      <c r="BK10">
+        <v>61</v>
+      </c>
+      <c r="BL10">
+        <v>62</v>
+      </c>
+      <c r="BM10">
+        <v>63</v>
+      </c>
+      <c r="BN10">
+        <v>64</v>
+      </c>
+      <c r="BO10">
+        <v>65</v>
+      </c>
+      <c r="BP10">
+        <v>66</v>
+      </c>
+      <c r="BQ10">
+        <v>67</v>
+      </c>
+      <c r="BR10">
+        <v>68</v>
+      </c>
+      <c r="BS10">
+        <v>69</v>
+      </c>
+      <c r="BT10">
+        <v>70</v>
+      </c>
+      <c r="BU10">
+        <v>71</v>
+      </c>
+      <c r="BV10">
+        <v>72</v>
+      </c>
+      <c r="BW10">
+        <v>73</v>
+      </c>
+      <c r="BX10">
+        <v>74</v>
+      </c>
+      <c r="BY10">
+        <v>75</v>
+      </c>
+      <c r="BZ10">
+        <v>76</v>
+      </c>
+      <c r="CA10">
+        <v>77</v>
+      </c>
+      <c r="CB10">
+        <v>78</v>
+      </c>
+      <c r="CC10">
+        <v>79</v>
+      </c>
+      <c r="CD10">
+        <v>80</v>
+      </c>
+      <c r="CE10">
+        <v>81</v>
+      </c>
+      <c r="CF10">
+        <v>82</v>
+      </c>
+      <c r="CG10">
+        <v>83</v>
+      </c>
+      <c r="CH10">
+        <v>84</v>
+      </c>
+      <c r="CI10">
+        <v>85</v>
+      </c>
+      <c r="CJ10">
+        <v>86</v>
+      </c>
+      <c r="CK10">
+        <v>87</v>
+      </c>
+      <c r="CL10">
+        <v>88</v>
+      </c>
+      <c r="CM10">
+        <v>89</v>
+      </c>
+      <c r="CN10">
+        <v>90</v>
+      </c>
+      <c r="CO10">
+        <v>91</v>
+      </c>
+      <c r="CP10">
+        <v>92</v>
+      </c>
+      <c r="CQ10">
+        <v>93</v>
+      </c>
+      <c r="CR10">
+        <v>94</v>
+      </c>
+      <c r="CS10">
+        <v>95</v>
+      </c>
+      <c r="CT10">
+        <v>96</v>
+      </c>
+      <c r="CU10">
+        <v>97</v>
+      </c>
+      <c r="CV10">
+        <v>98</v>
+      </c>
+      <c r="CW10">
+        <v>99</v>
+      </c>
+      <c r="CX10">
+        <v>100</v>
+      </c>
+      <c r="CY10">
+        <v>101</v>
+      </c>
+      <c r="CZ10">
+        <v>102</v>
+      </c>
+      <c r="DA10">
+        <v>103</v>
+      </c>
+      <c r="DB10">
+        <v>104</v>
+      </c>
+      <c r="DC10">
+        <v>105</v>
+      </c>
+      <c r="DD10">
+        <v>106</v>
+      </c>
+      <c r="DE10">
+        <v>107</v>
+      </c>
+      <c r="DF10">
+        <v>108</v>
+      </c>
+      <c r="DG10">
+        <v>109</v>
+      </c>
+      <c r="DH10">
+        <v>110</v>
+      </c>
+      <c r="DI10">
+        <v>111</v>
+      </c>
+      <c r="DJ10">
+        <v>112</v>
+      </c>
+      <c r="DK10">
+        <v>113</v>
+      </c>
+      <c r="DL10">
+        <v>114</v>
+      </c>
+      <c r="DM10">
+        <v>115</v>
+      </c>
+      <c r="DN10">
+        <v>116</v>
+      </c>
+      <c r="DO10">
+        <v>117</v>
+      </c>
+      <c r="DP10">
+        <v>118</v>
+      </c>
+      <c r="DQ10">
+        <v>119</v>
+      </c>
+      <c r="DR10">
+        <v>120</v>
+      </c>
+      <c r="DS10">
+        <v>121</v>
+      </c>
+      <c r="DT10">
+        <v>122</v>
+      </c>
+      <c r="DU10">
+        <v>123</v>
+      </c>
+      <c r="DV10">
+        <v>124</v>
+      </c>
+      <c r="DW10">
+        <v>125</v>
+      </c>
+      <c r="DX10">
+        <v>126</v>
+      </c>
+      <c r="DY10">
+        <v>127</v>
+      </c>
+      <c r="DZ10">
+        <v>128</v>
+      </c>
+      <c r="EA10">
+        <v>129</v>
+      </c>
+      <c r="EB10">
+        <v>130</v>
+      </c>
+      <c r="EC10">
+        <v>131</v>
+      </c>
+      <c r="ED10">
+        <v>132</v>
+      </c>
+      <c r="EE10">
+        <v>133</v>
+      </c>
+      <c r="EF10">
+        <v>134</v>
+      </c>
+      <c r="EG10">
+        <v>135</v>
+      </c>
+      <c r="EH10">
+        <v>136</v>
+      </c>
+      <c r="EI10">
+        <v>137</v>
+      </c>
+      <c r="EJ10">
+        <v>138</v>
+      </c>
+      <c r="EK10">
+        <v>139</v>
+      </c>
+      <c r="EL10">
+        <v>140</v>
+      </c>
+      <c r="EM10">
+        <v>141</v>
+      </c>
+      <c r="EN10">
+        <v>142</v>
+      </c>
+      <c r="EO10">
+        <v>143</v>
+      </c>
+      <c r="EP10">
+        <v>144</v>
+      </c>
+      <c r="EQ10">
+        <v>145</v>
+      </c>
+      <c r="ER10">
+        <v>146</v>
+      </c>
+      <c r="ES10">
+        <v>147</v>
+      </c>
+      <c r="ET10">
+        <v>148</v>
+      </c>
+      <c r="EU10">
+        <v>149</v>
+      </c>
+      <c r="EV10">
+        <v>150</v>
+      </c>
+      <c r="EW10">
+        <v>151</v>
+      </c>
+      <c r="EX10">
+        <v>152</v>
+      </c>
+      <c r="EY10">
+        <v>153</v>
+      </c>
+      <c r="EZ10">
+        <v>154</v>
+      </c>
+      <c r="FA10">
+        <v>155</v>
+      </c>
+      <c r="FB10">
+        <v>156</v>
+      </c>
+      <c r="FC10">
+        <v>157</v>
+      </c>
+      <c r="FD10">
+        <v>158</v>
+      </c>
+      <c r="FE10">
+        <v>159</v>
+      </c>
+      <c r="FF10">
+        <v>160</v>
+      </c>
+      <c r="FG10">
+        <v>161</v>
+      </c>
+      <c r="FH10">
+        <v>162</v>
+      </c>
+      <c r="FI10">
+        <v>163</v>
+      </c>
+      <c r="FJ10">
+        <v>164</v>
+      </c>
+      <c r="FK10">
+        <v>165</v>
+      </c>
+      <c r="FL10">
+        <v>166</v>
+      </c>
+      <c r="FM10">
+        <v>167</v>
+      </c>
+      <c r="FN10">
+        <v>168</v>
+      </c>
+      <c r="FO10">
+        <v>169</v>
+      </c>
+      <c r="FP10">
+        <v>170</v>
+      </c>
+      <c r="FQ10">
+        <v>171</v>
+      </c>
+      <c r="FR10">
+        <v>172</v>
+      </c>
+      <c r="FS10">
+        <v>173</v>
+      </c>
+      <c r="FT10">
+        <v>174</v>
+      </c>
+      <c r="FU10">
+        <v>175</v>
+      </c>
+      <c r="FV10">
+        <v>176</v>
+      </c>
+      <c r="FW10">
+        <v>177</v>
+      </c>
+      <c r="FX10">
+        <v>178</v>
+      </c>
+      <c r="FY10">
+        <v>179</v>
+      </c>
+      <c r="FZ10">
+        <v>180</v>
+      </c>
+      <c r="GA10">
+        <v>181</v>
+      </c>
+      <c r="GB10">
+        <v>182</v>
+      </c>
+      <c r="GC10">
+        <v>183</v>
+      </c>
+      <c r="GD10">
+        <v>184</v>
+      </c>
+      <c r="GE10">
+        <v>185</v>
+      </c>
+      <c r="GF10">
+        <v>186</v>
+      </c>
+      <c r="GG10">
+        <v>187</v>
+      </c>
+      <c r="GH10">
+        <v>188</v>
+      </c>
+      <c r="GI10">
+        <v>189</v>
+      </c>
+      <c r="GJ10">
+        <v>190</v>
+      </c>
+      <c r="GK10">
+        <v>191</v>
+      </c>
+      <c r="GL10">
+        <v>192</v>
+      </c>
+      <c r="GM10">
+        <v>193</v>
+      </c>
+      <c r="GN10">
+        <v>194</v>
+      </c>
+      <c r="GO10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.916844441092174</v>
+      </c>
+      <c r="C11">
+        <v>1.0820489899183701</v>
+      </c>
+      <c r="D11">
+        <v>1.13561975194938</v>
+      </c>
+      <c r="E11">
+        <v>1.0328482285218601</v>
+      </c>
+      <c r="F11">
+        <v>0.89625556510353699</v>
+      </c>
+      <c r="G11">
+        <v>1.0039428593164299</v>
+      </c>
+      <c r="H11">
+        <v>0.90291970289738699</v>
+      </c>
+      <c r="I11">
+        <v>1.1121134664094801</v>
+      </c>
+      <c r="J11">
+        <v>1.2789009374154501</v>
+      </c>
+      <c r="K11">
+        <v>1.0725827041041101</v>
+      </c>
+      <c r="L11">
+        <v>1.1376162278023401</v>
+      </c>
+      <c r="M11">
+        <v>1.11652214588762</v>
+      </c>
+      <c r="N11">
+        <v>1.1042277677010599</v>
+      </c>
+      <c r="O11">
+        <v>0.91183728701475997</v>
+      </c>
+      <c r="P11">
+        <v>0.90550085908002698</v>
+      </c>
+      <c r="Q11">
+        <v>0.91979538666441496</v>
+      </c>
+      <c r="R11">
+        <v>0.98994729087225697</v>
+      </c>
+      <c r="S11">
+        <v>1.0379044124574801</v>
+      </c>
+      <c r="T11">
+        <v>0.87152296065685497</v>
+      </c>
+      <c r="U11">
+        <v>1.0319816858697901</v>
+      </c>
+      <c r="V11">
+        <v>1.1145416573234299</v>
+      </c>
+      <c r="W11">
+        <v>0.84182635323199195</v>
+      </c>
+      <c r="X11">
+        <v>0.94891326945202903</v>
+      </c>
+      <c r="Y11">
+        <v>0.99936806374867904</v>
+      </c>
+      <c r="Z11">
+        <v>0.94891413990526596</v>
+      </c>
+      <c r="AA11">
+        <v>1.1325835981179999</v>
+      </c>
+      <c r="AB11">
+        <v>1.0955976140197601</v>
+      </c>
+      <c r="AC11">
+        <v>1.02400636529108</v>
+      </c>
+      <c r="AD11">
+        <v>1.05116908670878</v>
+      </c>
+      <c r="AE11">
+        <v>1.11908638180311</v>
+      </c>
+      <c r="AF11">
+        <v>0.92957671297834299</v>
+      </c>
+      <c r="AG11">
+        <v>1.09153644256863</v>
+      </c>
+      <c r="AH11">
+        <v>1.0479126161546699</v>
+      </c>
+      <c r="AI11">
+        <v>1.02589609438026</v>
+      </c>
+      <c r="AJ11">
+        <v>1.0348832809013799</v>
+      </c>
+      <c r="AK11">
+        <v>1.04281349554904</v>
+      </c>
+      <c r="AL11">
+        <v>1.0403521046514499</v>
+      </c>
+      <c r="AM11">
+        <v>1.0325068512253299</v>
+      </c>
+      <c r="AN11">
+        <v>0.89941717381790198</v>
+      </c>
+      <c r="AO11">
+        <v>0.97124727713473402</v>
+      </c>
+      <c r="AP11">
+        <v>0.93679725586877205</v>
+      </c>
+      <c r="AQ11">
+        <v>1.10517887006472</v>
+      </c>
+      <c r="AR11">
+        <v>1.0552823711441399</v>
+      </c>
+      <c r="AS11">
+        <v>1.0374172514334199</v>
+      </c>
+      <c r="AT11">
+        <v>1.08160170169071</v>
+      </c>
+      <c r="AU11">
+        <v>0.99292395614350704</v>
+      </c>
+      <c r="AV11">
+        <v>1.07394696803505</v>
+      </c>
+      <c r="AW11">
+        <v>1.1761651700915801</v>
+      </c>
+      <c r="AX11">
+        <v>0.96341901465328905</v>
+      </c>
+      <c r="AY11">
+        <v>0.94319902057342397</v>
+      </c>
+      <c r="AZ11">
+        <v>1.0464930923396401</v>
+      </c>
+      <c r="BA11">
+        <v>1.16204886511701</v>
+      </c>
+      <c r="BB11">
+        <v>1.0853586553697001</v>
+      </c>
+      <c r="BC11">
+        <v>0.97533843474132198</v>
+      </c>
+      <c r="BD11">
+        <v>1.1740844195351801</v>
+      </c>
+      <c r="BE11">
+        <v>1.0012795495540601</v>
+      </c>
+      <c r="BF11">
+        <v>1.13335431535673</v>
+      </c>
+      <c r="BG11">
+        <v>1.0061242369641901</v>
+      </c>
+      <c r="BH11">
+        <v>1.00462644433713</v>
+      </c>
+      <c r="BI11">
+        <v>0.96915751626179902</v>
+      </c>
+      <c r="BJ11">
+        <v>0.97672786927522204</v>
+      </c>
+      <c r="BK11">
+        <v>1.0824417151786201</v>
+      </c>
+      <c r="BL11">
+        <v>0.91780852957064496</v>
+      </c>
+      <c r="BM11">
+        <v>0.93686837179612703</v>
+      </c>
+      <c r="BN11">
+        <v>0.99581013490446002</v>
+      </c>
+      <c r="BO11">
+        <v>1.0250711290090599</v>
+      </c>
+      <c r="BP11">
+        <v>1.0271598811832601</v>
+      </c>
+      <c r="BQ11">
+        <v>0.99583478984950102</v>
+      </c>
+      <c r="BR11">
+        <v>1.1150519426585399</v>
+      </c>
+      <c r="BS11">
+        <v>0.96115526842830601</v>
+      </c>
+      <c r="BT11">
+        <v>0.954512405463116</v>
+      </c>
+      <c r="BU11">
+        <v>1.0149062276466201</v>
+      </c>
+      <c r="BV11">
+        <v>1.0614785340961601</v>
+      </c>
+      <c r="BW11">
+        <v>1.11112761778195</v>
+      </c>
+      <c r="BX11">
+        <v>1.20069781570458</v>
+      </c>
+      <c r="BY11">
+        <v>1.00323442823227</v>
+      </c>
+      <c r="BZ11">
+        <v>1.1332129280313601</v>
+      </c>
+      <c r="CA11">
+        <v>0.97573143041558397</v>
+      </c>
+      <c r="CB11">
+        <v>1.0382972827677299</v>
+      </c>
+      <c r="CC11">
+        <v>1.0022816602023299</v>
+      </c>
+      <c r="CD11">
+        <v>0.91699707626396398</v>
+      </c>
+      <c r="CE11">
+        <v>1.02118183807743</v>
+      </c>
+      <c r="CF11">
+        <v>0.878817810744845</v>
+      </c>
+      <c r="CG11">
+        <v>1.0676230774895601</v>
+      </c>
+      <c r="CH11">
+        <v>0.98190853110668697</v>
+      </c>
+      <c r="CI11">
+        <v>1.0494797932464801</v>
+      </c>
+      <c r="CJ11">
+        <v>1.0559092162116199</v>
+      </c>
+      <c r="CK11">
+        <v>0.96352648794296902</v>
+      </c>
+      <c r="CL11">
+        <v>0.93744316027867303</v>
+      </c>
+      <c r="CM11">
+        <v>0.89850260369662205</v>
+      </c>
+      <c r="CN11">
+        <v>0.96396866585623098</v>
+      </c>
+      <c r="CO11">
+        <v>0.72534691322992495</v>
+      </c>
+      <c r="CP11">
+        <v>1.00093798368958</v>
+      </c>
+      <c r="CQ11">
+        <v>1.0283792102727001</v>
+      </c>
+      <c r="CR11">
+        <v>1.0101469472761799</v>
+      </c>
+      <c r="CS11">
+        <v>0.93981626991154998</v>
+      </c>
+      <c r="CT11">
+        <v>1.1602732396842901</v>
+      </c>
+      <c r="CU11">
+        <v>1.1134452192481099</v>
+      </c>
+      <c r="CV11">
+        <v>0.99057451187788204</v>
+      </c>
+      <c r="CW11">
+        <v>0.99100158734749999</v>
+      </c>
+      <c r="CX11">
+        <v>1.09889229798139</v>
+      </c>
+      <c r="CY11">
+        <v>1.0179831062661799</v>
+      </c>
+      <c r="CZ11">
+        <v>0.99344905541299</v>
+      </c>
+      <c r="DA11">
+        <v>0.94730716267022697</v>
+      </c>
+      <c r="DB11">
+        <v>0.98564030189775897</v>
+      </c>
+      <c r="DC11">
+        <v>1.10506895055253</v>
+      </c>
+      <c r="DD11">
+        <v>0.93756241649782501</v>
+      </c>
+      <c r="DE11">
+        <v>0.98695777759317505</v>
+      </c>
+      <c r="DF11">
+        <v>1.0573024105042601</v>
+      </c>
+      <c r="DG11">
+        <v>1.07438512669248</v>
+      </c>
+      <c r="DH11">
+        <v>0.94104177265087197</v>
+      </c>
+      <c r="DI11">
+        <v>1.06327951876764</v>
+      </c>
+      <c r="DJ11">
+        <v>0.99318024216220202</v>
+      </c>
+      <c r="DK11">
+        <v>0.98919397635578699</v>
+      </c>
+      <c r="DL11">
+        <v>1.08606949327485</v>
+      </c>
+      <c r="DM11">
+        <v>1.0861561058966001</v>
+      </c>
+      <c r="DN11">
+        <v>0.99833476112035302</v>
+      </c>
+      <c r="DO11">
+        <v>1.0461836451874</v>
+      </c>
+      <c r="DP11">
+        <v>1.0214368660545801</v>
+      </c>
+      <c r="DQ11">
+        <v>0.93618492193175995</v>
+      </c>
+      <c r="DR11">
+        <v>1.0673310310345301</v>
+      </c>
+      <c r="DS11">
+        <v>1.0592062267364399</v>
+      </c>
+      <c r="DT11">
+        <v>0.97316510440115001</v>
+      </c>
+      <c r="DU11">
+        <v>1.0014758710928</v>
+      </c>
+      <c r="DV11">
+        <v>1.1242258952136399</v>
+      </c>
+      <c r="DW11">
+        <v>0.89740702017579699</v>
+      </c>
+      <c r="DX11">
+        <v>0.93059858621201197</v>
+      </c>
+      <c r="DY11">
+        <v>1.08404664823716</v>
+      </c>
+      <c r="DZ11">
+        <v>1.00294620704485</v>
+      </c>
+      <c r="EA11">
+        <v>1.0319459642393201</v>
+      </c>
+      <c r="EB11">
+        <v>1.03063364077236</v>
+      </c>
+      <c r="EC11">
+        <v>1.05576084885094</v>
+      </c>
+      <c r="ED11">
+        <v>0.97072850644674102</v>
+      </c>
+      <c r="EE11">
+        <v>0.98216213736123503</v>
+      </c>
+      <c r="EF11">
+        <v>0.94079712962858997</v>
+      </c>
+      <c r="EG11">
+        <v>1.02771334026283</v>
+      </c>
+      <c r="EH11">
+        <v>1.00661404323298</v>
+      </c>
+      <c r="EI11">
+        <v>1.0591346903386401</v>
+      </c>
+      <c r="EJ11">
+        <v>1.0841874416980599</v>
+      </c>
+      <c r="EK11">
+        <v>1.03368071246006</v>
+      </c>
+      <c r="EL11">
+        <v>1.04534723854301</v>
+      </c>
+      <c r="EM11">
+        <v>1.0076708858288399</v>
+      </c>
+      <c r="EN11">
+        <v>1.0322376767966699</v>
+      </c>
+      <c r="EO11">
+        <v>1.0716677879797201</v>
+      </c>
+      <c r="EP11">
+        <v>1.03776805030162</v>
+      </c>
+      <c r="EQ11">
+        <v>1.06824033894715</v>
+      </c>
+      <c r="ER11">
+        <v>0.99742403667086099</v>
+      </c>
+      <c r="ES11">
+        <v>0.892778105667278</v>
+      </c>
+      <c r="ET11">
+        <v>1.03668170352691</v>
+      </c>
+      <c r="EU11">
+        <v>0.97740010309306602</v>
+      </c>
+      <c r="EV11">
+        <v>1.0282220727945</v>
+      </c>
+      <c r="EW11">
+        <v>1.02049181030479</v>
+      </c>
+      <c r="EX11">
+        <v>1.00213651570241</v>
+      </c>
+      <c r="EY11">
+        <v>0.96085627338304103</v>
+      </c>
+      <c r="EZ11">
+        <v>1.00334840904195</v>
+      </c>
+      <c r="FA11">
+        <v>1.04347701601382</v>
+      </c>
+      <c r="FB11">
+        <v>1.0332447208455999</v>
+      </c>
+      <c r="FC11">
+        <v>1.0124512443485001</v>
+      </c>
+      <c r="FD11">
+        <v>1.0335944861372</v>
+      </c>
+      <c r="FE11">
+        <v>0.99419915518409996</v>
+      </c>
+      <c r="FF11">
+        <v>1.0376627182940601</v>
+      </c>
+      <c r="FG11">
+        <v>1.04629068891902</v>
+      </c>
+      <c r="FH11">
+        <v>1.0492613433666</v>
+      </c>
+      <c r="FI11">
+        <v>1.0061481454383601</v>
+      </c>
+      <c r="FJ11">
+        <v>0.96582863513960004</v>
+      </c>
+      <c r="FK11">
+        <v>1.02218042821671</v>
+      </c>
+      <c r="FL11">
+        <v>1.0566825829184701</v>
+      </c>
+      <c r="FM11">
+        <v>1.05919032024241</v>
+      </c>
+      <c r="FN11">
+        <v>1.06873780553984</v>
+      </c>
+      <c r="FO11">
+        <v>1.1165907694235</v>
+      </c>
+      <c r="FP11">
+        <v>1.04910889243316</v>
+      </c>
+      <c r="FQ11">
+        <v>1.04139596983375</v>
+      </c>
+      <c r="FR11">
+        <v>0.96665702426108202</v>
+      </c>
+      <c r="FS11">
+        <v>0.94719662103408098</v>
+      </c>
+      <c r="FT11">
+        <v>1.0065292897285301</v>
+      </c>
+      <c r="FU11">
+        <v>1.0361633260701</v>
+      </c>
+      <c r="FV11">
+        <v>0.95997805022628502</v>
+      </c>
+      <c r="FW11">
+        <v>1.01532430636858</v>
+      </c>
+      <c r="FX11">
+        <v>0.99046003924405102</v>
+      </c>
+      <c r="FY11">
+        <v>0.991975842456427</v>
+      </c>
+      <c r="FZ11">
+        <v>1.0618860843542299</v>
+      </c>
+      <c r="GA11">
+        <v>1.00501754742364</v>
+      </c>
+      <c r="GB11">
+        <v>0.98830574760091905</v>
+      </c>
+      <c r="GC11">
+        <v>0.992996576960953</v>
+      </c>
+      <c r="GD11">
+        <v>1.03785696117851</v>
+      </c>
+      <c r="GE11">
+        <v>0.98454279000786005</v>
+      </c>
+      <c r="GF11">
+        <v>0.99121812588121205</v>
+      </c>
+      <c r="GG11">
+        <v>0.95472096936929496</v>
+      </c>
+      <c r="GH11">
+        <v>1.01259387640365</v>
+      </c>
+      <c r="GI11">
+        <v>1.0340887469053299</v>
+      </c>
+      <c r="GJ11">
+        <v>1.02762179533441</v>
+      </c>
+      <c r="GK11">
+        <v>0.99832683709339798</v>
+      </c>
+      <c r="GL11">
+        <v>1.0196727431337</v>
+      </c>
+      <c r="GM11">
+        <v>1.04081990475798</v>
+      </c>
+      <c r="GN11">
+        <v>1.0357882037316199</v>
+      </c>
+      <c r="GO11">
+        <v>1.04064079691831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>20090227</v>
+      </c>
+      <c r="C13">
+        <v>20090331</v>
+      </c>
+      <c r="D13">
+        <v>20090430</v>
+      </c>
+      <c r="E13">
+        <v>20090529</v>
+      </c>
+      <c r="F13">
+        <v>20090630</v>
+      </c>
+      <c r="G13">
+        <v>20090731</v>
+      </c>
+      <c r="H13">
+        <v>20090831</v>
+      </c>
+      <c r="I13">
+        <v>20090930</v>
+      </c>
+      <c r="J13">
+        <v>20091030</v>
+      </c>
+      <c r="K13">
+        <v>20091130</v>
+      </c>
+      <c r="L13">
+        <v>20091230</v>
+      </c>
+      <c r="M13">
+        <v>20100129</v>
+      </c>
+      <c r="N13">
+        <v>20100226</v>
+      </c>
+      <c r="O13">
+        <v>20100331</v>
+      </c>
+      <c r="P13">
+        <v>20100430</v>
+      </c>
+      <c r="Q13">
+        <v>20100531</v>
+      </c>
+      <c r="R13">
+        <v>20100630</v>
+      </c>
+      <c r="S13">
+        <v>20100730</v>
+      </c>
+      <c r="T13">
+        <v>20100831</v>
+      </c>
+      <c r="U13">
+        <v>20100930</v>
+      </c>
+      <c r="V13">
+        <v>20101029</v>
+      </c>
+      <c r="W13">
+        <v>20101130</v>
+      </c>
+      <c r="X13">
+        <v>20101230</v>
+      </c>
+      <c r="Y13">
+        <v>20110131</v>
+      </c>
+      <c r="Z13">
+        <v>20110228</v>
+      </c>
+      <c r="AA13">
+        <v>20110331</v>
+      </c>
+      <c r="AB13">
+        <v>20110429</v>
+      </c>
+      <c r="AC13">
+        <v>20110531</v>
+      </c>
+      <c r="AD13">
+        <v>20110630</v>
+      </c>
+      <c r="AE13">
+        <v>20110729</v>
+      </c>
+      <c r="AF13">
+        <v>20110831</v>
+      </c>
+      <c r="AG13">
+        <v>20110930</v>
+      </c>
+      <c r="AH13">
+        <v>20111031</v>
+      </c>
+      <c r="AI13">
+        <v>20111130</v>
+      </c>
+      <c r="AJ13">
+        <v>20111229</v>
+      </c>
+      <c r="AK13">
+        <v>20120131</v>
+      </c>
+      <c r="AL13">
+        <v>20120229</v>
+      </c>
+      <c r="AM13">
+        <v>20120330</v>
+      </c>
+      <c r="AN13">
+        <v>20120430</v>
+      </c>
+      <c r="AO13">
+        <v>20120531</v>
+      </c>
+      <c r="AP13">
+        <v>20120629</v>
+      </c>
+      <c r="AQ13">
+        <v>20120731</v>
+      </c>
+      <c r="AR13">
+        <v>20120831</v>
+      </c>
+      <c r="AS13">
+        <v>20120928</v>
+      </c>
+      <c r="AT13">
+        <v>20121031</v>
+      </c>
+      <c r="AU13">
+        <v>20121130</v>
+      </c>
+      <c r="AV13">
+        <v>20121228</v>
+      </c>
+      <c r="AW13">
+        <v>20130131</v>
+      </c>
+      <c r="AX13">
+        <v>20130228</v>
+      </c>
+      <c r="AY13">
+        <v>20130329</v>
+      </c>
+      <c r="AZ13">
+        <v>20130430</v>
+      </c>
+      <c r="BA13">
+        <v>20130531</v>
+      </c>
+      <c r="BB13">
+        <v>20130628</v>
+      </c>
+      <c r="BC13">
+        <v>20130731</v>
+      </c>
+      <c r="BD13">
+        <v>20130830</v>
+      </c>
+      <c r="BE13">
+        <v>20130930</v>
+      </c>
+      <c r="BF13">
+        <v>20131031</v>
+      </c>
+      <c r="BG13">
+        <v>20131129</v>
+      </c>
+      <c r="BH13">
+        <v>20131230</v>
+      </c>
+      <c r="BI13">
+        <v>20140129</v>
+      </c>
+      <c r="BJ13">
+        <v>20140228</v>
+      </c>
+      <c r="BK13">
+        <v>20140331</v>
+      </c>
+      <c r="BL13">
+        <v>20140430</v>
+      </c>
+      <c r="BM13">
+        <v>20140530</v>
+      </c>
+      <c r="BN13">
+        <v>20140630</v>
+      </c>
+      <c r="BO13">
+        <v>20140731</v>
+      </c>
+      <c r="BP13">
+        <v>20140829</v>
+      </c>
+      <c r="BQ13">
+        <v>20140930</v>
+      </c>
+      <c r="BR13">
+        <v>20141031</v>
+      </c>
+      <c r="BS13">
+        <v>20141128</v>
+      </c>
+      <c r="BT13">
+        <v>20141230</v>
+      </c>
+      <c r="BU13">
+        <v>20150130</v>
+      </c>
+      <c r="BV13">
+        <v>20150227</v>
+      </c>
+      <c r="BW13">
+        <v>20150331</v>
+      </c>
+      <c r="BX13">
+        <v>20150430</v>
+      </c>
+      <c r="BY13">
+        <v>20150529</v>
+      </c>
+      <c r="BZ13">
+        <v>20150630</v>
+      </c>
+      <c r="CA13">
+        <v>20150731</v>
+      </c>
+      <c r="CB13">
+        <v>20150831</v>
+      </c>
+      <c r="CC13">
+        <v>20150930</v>
+      </c>
+      <c r="CD13">
+        <v>20151030</v>
+      </c>
+      <c r="CE13">
+        <v>20151130</v>
+      </c>
+      <c r="CF13">
+        <v>20151230</v>
+      </c>
+      <c r="CG13">
+        <v>20160129</v>
+      </c>
+      <c r="CH13">
+        <v>20160229</v>
+      </c>
+      <c r="CI13">
+        <v>20160331</v>
+      </c>
+      <c r="CJ13">
+        <v>20160429</v>
+      </c>
+      <c r="CK13">
+        <v>20160531</v>
+      </c>
+      <c r="CL13">
+        <v>20160630</v>
+      </c>
+      <c r="CM13">
+        <v>20160729</v>
+      </c>
+      <c r="CN13">
+        <v>20160831</v>
+      </c>
+      <c r="CO13">
+        <v>20160930</v>
+      </c>
+      <c r="CP13">
+        <v>20161031</v>
+      </c>
+      <c r="CQ13">
+        <v>20161130</v>
+      </c>
+      <c r="CR13">
+        <v>20161229</v>
+      </c>
+      <c r="CS13">
+        <v>20170131</v>
+      </c>
+      <c r="CT13">
+        <v>20170228</v>
+      </c>
+      <c r="CU13">
+        <v>20170331</v>
+      </c>
+      <c r="CV13">
+        <v>20170428</v>
+      </c>
+      <c r="CW13">
+        <v>20170531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.6210665918837126</v>
+      </c>
+      <c r="C14">
+        <v>0.70790321539445655</v>
+      </c>
+      <c r="D14">
+        <v>0.75014105956274268</v>
+      </c>
+      <c r="E14">
+        <v>0.75371216293560561</v>
+      </c>
+      <c r="F14">
+        <v>0.82993217586511614</v>
+      </c>
+      <c r="G14">
+        <v>0.97655941354637643</v>
+      </c>
+      <c r="H14">
+        <v>1.079776698502279</v>
+      </c>
+      <c r="I14">
+        <v>1.1554355482507634</v>
+      </c>
+      <c r="J14">
+        <v>1.4201300918189499</v>
+      </c>
+      <c r="K14">
+        <v>1.4456308604458818</v>
+      </c>
+      <c r="L14">
+        <v>1.4965005736035641</v>
+      </c>
+      <c r="M14">
+        <v>1.378897006307493</v>
+      </c>
+      <c r="N14">
+        <v>1.5000329247528295</v>
+      </c>
+      <c r="O14">
+        <v>1.4033873294314663</v>
+      </c>
+      <c r="P14">
+        <v>1.2718058070923643</v>
+      </c>
+      <c r="Q14">
+        <v>1.1757731626417554</v>
+      </c>
+      <c r="R14">
+        <v>1.2217298409432622</v>
+      </c>
+      <c r="S14">
+        <v>1.1297381990509157</v>
+      </c>
+      <c r="T14">
+        <v>1.0947953638847887</v>
+      </c>
+      <c r="U14">
+        <v>1.1193384893075298</v>
+      </c>
+      <c r="V14">
+        <v>1.1912202898734099</v>
+      </c>
+      <c r="W14">
+        <v>1.2243700179994863</v>
+      </c>
+      <c r="X14">
+        <v>1.218823725167433</v>
+      </c>
+      <c r="Y14">
+        <v>1.2916196027283564</v>
+      </c>
+      <c r="Z14">
+        <v>1.2161823176008733</v>
+      </c>
+      <c r="AA14">
+        <v>1.2444693859467766</v>
+      </c>
+      <c r="AB14">
+        <v>1.2588483888008457</v>
+      </c>
+      <c r="AC14">
+        <v>1.3053891850723538</v>
+      </c>
+      <c r="AD14">
+        <v>1.236944220362836</v>
+      </c>
+      <c r="AE14">
+        <v>1.2125127179096593</v>
+      </c>
+      <c r="AF14">
+        <v>1.0788179601204992</v>
+      </c>
+      <c r="AG14">
+        <v>0.94491699638511151</v>
+      </c>
+      <c r="AH14">
+        <v>1.0138506067606681</v>
+      </c>
+      <c r="AI14">
+        <v>0.9700099231871806</v>
+      </c>
+      <c r="AJ14">
+        <v>0.89017064846416394</v>
+      </c>
+      <c r="AK14">
+        <v>0.94494934121842011</v>
+      </c>
+      <c r="AL14">
+        <v>1.0468983653895736</v>
+      </c>
+      <c r="AM14">
+        <v>0.95601651872596982</v>
+      </c>
+      <c r="AN14">
+        <v>0.9040440438614098</v>
+      </c>
+      <c r="AO14">
+        <v>0.86044145308919162</v>
+      </c>
+      <c r="AP14">
+        <v>0.8825719168463696</v>
+      </c>
+      <c r="AQ14">
+        <v>0.88223381664252487</v>
+      </c>
+      <c r="AR14">
+        <v>1.0133024131566772</v>
+      </c>
+      <c r="AS14">
+        <v>1.1280253157404003</v>
+      </c>
+      <c r="AT14">
+        <v>1.0015871934961738</v>
+      </c>
+      <c r="AU14">
+        <v>1.0462189649853049</v>
+      </c>
+      <c r="AV14">
+        <v>1.0938304468325175</v>
+      </c>
+      <c r="AW14">
+        <v>1.0031445093798412</v>
+      </c>
+      <c r="AX14">
+        <v>0.99814801132865427</v>
+      </c>
+      <c r="AY14">
+        <v>0.99545689261385084</v>
+      </c>
+      <c r="AZ14">
+        <v>0.99089803682157829</v>
+      </c>
+      <c r="BA14">
+        <v>1.0854801000287502</v>
+      </c>
+      <c r="BB14">
+        <v>1.0050215478880906</v>
+      </c>
+      <c r="BC14">
+        <v>1.0170245325426803</v>
+      </c>
+      <c r="BD14">
+        <v>1.0111489040060466</v>
+      </c>
+      <c r="BE14">
+        <v>1.000375711974191</v>
+      </c>
+      <c r="BF14">
+        <v>1.0617292344382496</v>
+      </c>
+      <c r="BG14">
+        <v>1.0579285012157891</v>
+      </c>
+      <c r="BH14">
+        <v>1.007155554442803</v>
+      </c>
+      <c r="BI14">
+        <v>0.98940334566806309</v>
+      </c>
+      <c r="BJ14">
+        <v>0.97705392081875542</v>
+      </c>
+      <c r="BK14">
+        <v>0.99038351231239619</v>
+      </c>
+      <c r="BL14">
+        <v>0.99890017566638645</v>
+      </c>
+      <c r="BM14">
+        <v>0.99695659778616263</v>
+      </c>
+      <c r="BN14">
+        <v>1.074538994912307</v>
+      </c>
+      <c r="BO14">
+        <v>1.0846851930220525</v>
+      </c>
+      <c r="BP14">
+        <v>1.0738075956726678</v>
+      </c>
+      <c r="BQ14">
+        <v>1.0115826055604518</v>
+      </c>
+      <c r="BR14">
+        <v>0.96765660635735351</v>
+      </c>
+      <c r="BS14">
+        <v>0.96865815430809799</v>
+      </c>
+      <c r="BT14">
+        <v>0.95239492079906929</v>
+      </c>
+      <c r="BU14">
+        <v>1.0041779357597302</v>
+      </c>
+      <c r="BV14">
+        <v>1.0029343582543346</v>
+      </c>
+      <c r="BW14">
+        <v>1.0279108183379415</v>
+      </c>
+      <c r="BX14">
+        <v>1.0843005622416266</v>
+      </c>
+      <c r="BY14">
+        <v>1.0600713798772905</v>
+      </c>
+      <c r="BZ14">
+        <v>1.0359552694272824</v>
+      </c>
+      <c r="CA14">
+        <v>0.9778625512976129</v>
+      </c>
+      <c r="CB14">
+        <v>0.9385798679261701</v>
+      </c>
+      <c r="CC14">
+        <v>0.97164482770569627</v>
+      </c>
+      <c r="CD14">
+        <v>1.033108840732426</v>
+      </c>
+      <c r="CE14">
+        <v>1.005649289673765</v>
+      </c>
+      <c r="CF14">
+        <v>1.0238673202512023</v>
+      </c>
+      <c r="CG14">
+        <v>0.98091583472702515</v>
+      </c>
+      <c r="CH14">
+        <v>0.96518279786484051</v>
+      </c>
+      <c r="CI14">
+        <v>0.97786411762688452</v>
+      </c>
+      <c r="CJ14">
+        <v>0.93746621097514526</v>
+      </c>
+      <c r="CK14">
+        <v>0.93786646491393988</v>
+      </c>
+      <c r="CL14">
+        <v>0.94993250409796559</v>
+      </c>
+      <c r="CM14">
+        <v>0.99311876896402262</v>
+      </c>
+      <c r="CN14">
+        <v>1.0479837650464339</v>
+      </c>
+      <c r="CO14">
+        <v>1.0411756614241825</v>
+      </c>
+      <c r="CP14">
+        <v>0.98951450378670303</v>
+      </c>
+      <c r="CQ14">
+        <v>0.99573788761878945</v>
+      </c>
+      <c r="CR14">
+        <v>1.0332175943629514</v>
+      </c>
+      <c r="CS14">
+        <v>1.0813311297762624</v>
+      </c>
+      <c r="CT14">
+        <v>1.091294230588628</v>
+      </c>
+      <c r="CU14">
+        <v>1.082360898865145</v>
+      </c>
+      <c r="CV14">
+        <v>1.1059549181355468</v>
+      </c>
+      <c r="CW14">
+        <v>1.1835131592215384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:197" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:112" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.97220983284050899</v>
+      </c>
+      <c r="C17">
+        <v>1.0550497450973599</v>
+      </c>
+      <c r="D17">
+        <v>1.0573557222083001</v>
+      </c>
+      <c r="E17">
+        <v>0.94702664019916805</v>
+      </c>
+      <c r="F17">
+        <v>0.92925122518158199</v>
+      </c>
+      <c r="G17">
+        <v>0.91192169735690598</v>
+      </c>
+      <c r="H17">
+        <v>0.966489782729548</v>
+      </c>
+      <c r="I17">
+        <v>0.72290282204446499</v>
+      </c>
+      <c r="J17">
+        <v>0.98967834946092903</v>
+      </c>
+      <c r="K17">
+        <v>1.0273983352690701</v>
+      </c>
+      <c r="L17">
+        <v>1.0154378139854601</v>
+      </c>
+      <c r="M17">
+        <v>0.94362297949598095</v>
+      </c>
+      <c r="N17">
+        <v>1.1603602581531001</v>
+      </c>
+      <c r="O17">
+        <v>1.15152603711751</v>
+      </c>
+      <c r="P17">
+        <v>1.0176130793539899</v>
+      </c>
+      <c r="Q17">
+        <v>0.97166193407245605</v>
+      </c>
+      <c r="R17">
+        <v>1.12800802600482</v>
+      </c>
+      <c r="S17">
+        <v>1.02128460969686</v>
+      </c>
+      <c r="T17">
+        <v>1.0123481560109899</v>
+      </c>
+      <c r="U17">
+        <v>0.93613111124044501</v>
+      </c>
+      <c r="V17">
+        <v>0.98679932884895405</v>
+      </c>
+      <c r="W17">
+        <v>1.11267762110809</v>
+      </c>
+      <c r="X17">
+        <v>0.93006668176332297</v>
+      </c>
+      <c r="Y17">
+        <v>1.0062652126546501</v>
+      </c>
+      <c r="Z17">
+        <v>1.0533650287879699</v>
+      </c>
+      <c r="AA17">
+        <v>1.04227899463437</v>
+      </c>
+      <c r="AB17">
+        <v>0.94203706243078</v>
+      </c>
+      <c r="AC17">
+        <v>1.0476480297946</v>
+      </c>
+      <c r="AD17">
+        <v>1.01104847833691</v>
+      </c>
+      <c r="AE17">
+        <v>0.976217641352638</v>
+      </c>
+      <c r="AF17">
+        <v>1.0793904282279501</v>
+      </c>
+      <c r="AG17">
+        <v>1.0821453703193999</v>
+      </c>
+      <c r="AH17">
+        <v>1.02233714158554</v>
+      </c>
+      <c r="AI17">
+        <v>1.0483642438145799</v>
+      </c>
+      <c r="AJ17">
+        <v>1.0185200271080399</v>
+      </c>
+      <c r="AK17">
+        <v>0.93107521750122502</v>
+      </c>
+      <c r="AL17">
+        <v>1.05357427565135</v>
+      </c>
+      <c r="AM17">
+        <v>1.04052951077123</v>
+      </c>
+      <c r="AN17">
+        <v>0.96987427712144803</v>
+      </c>
+      <c r="AO17">
+        <v>1.0002442905458899</v>
+      </c>
+      <c r="AP17">
+        <v>1.13406095629047</v>
+      </c>
+      <c r="AQ17">
+        <v>0.92385538027015701</v>
+      </c>
+      <c r="AR17">
+        <v>0.924094011874249</v>
+      </c>
+      <c r="AS17">
+        <v>1.0652776047249199</v>
+      </c>
+      <c r="AT17">
+        <v>0.98904045649310401</v>
+      </c>
+      <c r="AU17">
+        <v>1.03301619903137</v>
+      </c>
+      <c r="AV17">
+        <v>1.0484696264064</v>
+      </c>
+      <c r="AW17">
+        <v>1.06411632042631</v>
+      </c>
+      <c r="AX17">
+        <v>0.98425943839906904</v>
+      </c>
+      <c r="AY17">
+        <v>0.99123430583289496</v>
+      </c>
+      <c r="AZ17">
+        <v>0.93474480844547803</v>
+      </c>
+      <c r="BA17">
+        <v>1.02912754357583</v>
+      </c>
+      <c r="BB17">
+        <v>1.0078467784157701</v>
+      </c>
+      <c r="BC17">
+        <v>1.0640132645096501</v>
+      </c>
+      <c r="BD17">
+        <v>1.0759683840530001</v>
+      </c>
+      <c r="BE17">
+        <v>1.0305982400475999</v>
+      </c>
+      <c r="BF17">
+        <v>1.05433940772294</v>
+      </c>
+      <c r="BG17">
+        <v>1.0209651129874999</v>
+      </c>
+      <c r="BH17">
+        <v>1.0389694263978599</v>
+      </c>
+      <c r="BI17">
+        <v>1.0596757266114001</v>
+      </c>
+      <c r="BJ17">
+        <v>1.0420701917403801</v>
+      </c>
+      <c r="BK17">
+        <v>1.07057714922422</v>
+      </c>
+      <c r="BL17">
+        <v>1.00123263729863</v>
+      </c>
+      <c r="BM17">
+        <v>0.91072834449259199</v>
+      </c>
+      <c r="BN17">
+        <v>1.0322333444932199</v>
+      </c>
+      <c r="BO17">
+        <v>0.98632463536429404</v>
+      </c>
+      <c r="BP17">
+        <v>1.0245503905644899</v>
+      </c>
+      <c r="BQ17">
+        <v>1.01915080268591</v>
+      </c>
+      <c r="BR17">
+        <v>0.99926120222613501</v>
+      </c>
+      <c r="BS17">
+        <v>0.97798491382358599</v>
+      </c>
+      <c r="BT17">
+        <v>1.0126675199314801</v>
+      </c>
+      <c r="BU17">
+        <v>1.05445832549246</v>
+      </c>
+      <c r="BV17">
+        <v>1.0130890465739999</v>
+      </c>
+      <c r="BW17">
+        <v>1.0154893366066</v>
+      </c>
+      <c r="BX17">
+        <v>1.0269555826243699</v>
+      </c>
+      <c r="BY17">
+        <v>0.99315617389634903</v>
+      </c>
+      <c r="BZ17">
+        <v>1.0322173535264001</v>
+      </c>
+      <c r="CA17">
+        <v>1.0544975626615301</v>
+      </c>
+      <c r="CB17">
+        <v>1.04134525673766</v>
+      </c>
+      <c r="CC17">
+        <v>1.0001638534386399</v>
+      </c>
+      <c r="CD17">
+        <v>0.95863071694343205</v>
+      </c>
+      <c r="CE17">
+        <v>1.0118293639909199</v>
+      </c>
+      <c r="CF17">
+        <v>1.04662285329322</v>
+      </c>
+      <c r="CG17">
+        <v>1.0395124313200701</v>
+      </c>
+      <c r="CH17">
+        <v>1.07442628613088</v>
+      </c>
+      <c r="CI17">
+        <v>1.13070643582283</v>
+      </c>
+      <c r="CJ17">
+        <v>1.04670189160764</v>
+      </c>
+      <c r="CK17">
+        <v>1.01427684813157</v>
+      </c>
+      <c r="CL17">
+        <v>0.97899840531457905</v>
+      </c>
+      <c r="CM17">
+        <v>0.92148941485747604</v>
+      </c>
+      <c r="CN17">
+        <v>1.02471841703075</v>
+      </c>
+      <c r="CO17">
+        <v>1.01838580634938</v>
+      </c>
+      <c r="CP17">
+        <v>0.97495916300465402</v>
+      </c>
+      <c r="CQ17">
+        <v>1.0103697276308701</v>
+      </c>
+      <c r="CR17">
+        <v>1.00404109047263</v>
+      </c>
+      <c r="CS17">
+        <v>0.99657251722358997</v>
+      </c>
+      <c r="CT17">
+        <v>1.0601379607964601</v>
+      </c>
+      <c r="CU17">
+        <v>1.01868728459039</v>
+      </c>
+      <c r="CV17">
+        <v>1.01434144757179</v>
+      </c>
+      <c r="CW17">
+        <v>0.99731845367116401</v>
+      </c>
+      <c r="CX17">
+        <v>1.03505357394668</v>
+      </c>
+      <c r="CY17">
+        <v>0.98074945374775702</v>
+      </c>
+      <c r="CZ17">
+        <v>0.98678660584143296</v>
+      </c>
+      <c r="DA17">
+        <v>0.95409960247459702</v>
+      </c>
+      <c r="DB17">
+        <v>1.0130975009960801</v>
+      </c>
+      <c r="DC17">
+        <v>1.0292007857986001</v>
+      </c>
+      <c r="DD17">
+        <v>1.0232398034618599</v>
+      </c>
+      <c r="DE17">
+        <v>1.01415425997551</v>
+      </c>
+      <c r="DF17">
+        <v>1.02266715566255</v>
+      </c>
+      <c r="DG17">
+        <v>1.0412749067723099</v>
+      </c>
+      <c r="DH17">
+        <v>1.03651769728534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:112" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.59247347071496359</v>
+      </c>
+      <c r="C18">
+        <v>0.70713404267786262</v>
+      </c>
+      <c r="D18">
+        <v>0.77179608417476242</v>
+      </c>
+      <c r="E18">
+        <v>0.74278672101961563</v>
+      </c>
+      <c r="F18">
+        <v>0.76210905935810824</v>
+      </c>
+      <c r="G18">
+        <v>0.92511595610642916</v>
+      </c>
+      <c r="H18">
+        <v>1.0360612000952485</v>
+      </c>
+      <c r="I18">
+        <v>1.0852206243389311</v>
+      </c>
+      <c r="J18">
+        <v>1.4053186099486077</v>
+      </c>
+      <c r="K18">
+        <v>1.4012304723768019</v>
+      </c>
+      <c r="L18">
+        <v>1.5175397264198023</v>
+      </c>
+      <c r="M18">
+        <v>1.3899552669362147</v>
+      </c>
+      <c r="N18">
+        <v>1.4822271846443287</v>
+      </c>
+      <c r="O18">
+        <v>1.3455530470409998</v>
+      </c>
+      <c r="P18">
+        <v>1.2178983643371939</v>
+      </c>
+      <c r="Q18">
+        <v>1.1274475738930212</v>
+      </c>
+      <c r="R18">
+        <v>1.2156164485472643</v>
+      </c>
+      <c r="S18">
+        <v>1.0895730634985559</v>
+      </c>
+      <c r="T18">
+        <v>1.041492680914526</v>
+      </c>
+      <c r="U18">
+        <v>1.1104650353473873</v>
+      </c>
+      <c r="V18">
+        <v>1.283671253389304</v>
+      </c>
+      <c r="W18">
+        <v>1.3299003774722109</v>
+      </c>
+      <c r="X18">
+        <v>1.2530314056185539</v>
+      </c>
+      <c r="Y18">
+        <v>1.3722000865553023</v>
+      </c>
+      <c r="Z18">
+        <v>1.2696667617815758</v>
+      </c>
+      <c r="AA18">
+        <v>1.2699189761423908</v>
+      </c>
+      <c r="AB18">
+        <v>1.267787394514349</v>
+      </c>
+      <c r="AC18">
+        <v>1.3052505382596218</v>
+      </c>
+      <c r="AD18">
+        <v>1.2461908594264279</v>
+      </c>
+      <c r="AE18">
+        <v>1.3978126944874742</v>
+      </c>
+      <c r="AF18">
+        <v>1.322836961461646</v>
+      </c>
+      <c r="AG18">
+        <v>1.1325148739548363</v>
+      </c>
+      <c r="AH18">
+        <v>1.1148619818849899</v>
+      </c>
+      <c r="AI18">
+        <v>1.0785518383693371</v>
+      </c>
+      <c r="AJ18">
+        <v>1.0627618474248977</v>
+      </c>
+      <c r="AK18">
+        <v>1.0940123782272579</v>
+      </c>
+      <c r="AL18">
+        <v>1.2503355309405966</v>
+      </c>
+      <c r="AM18">
+        <v>1.1680757360302554</v>
+      </c>
+      <c r="AN18">
+        <v>1.1127380140386611</v>
+      </c>
+      <c r="AO18">
+        <v>1.0724339291373175</v>
+      </c>
+      <c r="AP18">
+        <v>1.1034017445259572</v>
+      </c>
+      <c r="AQ18">
+        <v>0.98059975290604373</v>
+      </c>
+      <c r="AR18">
+        <v>1.1293663126817635</v>
+      </c>
+      <c r="AS18">
+        <v>1.3149770811689365</v>
+      </c>
+      <c r="AT18">
+        <v>1.272168925306173</v>
+      </c>
+      <c r="AU18">
+        <v>1.3561607337952124</v>
+      </c>
+      <c r="AV18">
+        <v>1.3403398689262891</v>
+      </c>
+      <c r="AW18">
+        <v>1.3281950279947845</v>
+      </c>
+      <c r="AX18">
+        <v>1.3226524246974822</v>
+      </c>
+      <c r="AY18">
+        <v>1.4003387847133371</v>
+      </c>
+      <c r="AZ18">
+        <v>1.5124281870236718</v>
+      </c>
+      <c r="BA18">
+        <v>1.6200062827167041</v>
+      </c>
+      <c r="BB18">
+        <v>1.4336275898318425</v>
+      </c>
+      <c r="BC18">
+        <v>1.4683166464410673</v>
+      </c>
+      <c r="BD18">
+        <v>1.3611079196157654</v>
+      </c>
+      <c r="BE18">
+        <v>1.2960637796714864</v>
+      </c>
+      <c r="BF18">
+        <v>1.2816676664645985</v>
+      </c>
+      <c r="BG18">
+        <v>1.2147139373380309</v>
+      </c>
+      <c r="BH18">
+        <v>1.1635773742078765</v>
+      </c>
+      <c r="BI18">
+        <v>1.1341209701162589</v>
+      </c>
+      <c r="BJ18">
+        <v>1.1285370316812249</v>
+      </c>
+      <c r="BK18">
+        <v>1.0971511463540895</v>
+      </c>
+      <c r="BL18">
+        <v>1.0406959373041318</v>
+      </c>
+      <c r="BM18">
+        <v>1.0674327452134504</v>
+      </c>
+      <c r="BN18">
+        <v>1.1640435125783988</v>
+      </c>
+      <c r="BO18">
+        <v>1.1640254796585308</v>
+      </c>
+      <c r="BP18">
+        <v>1.2444807593419602</v>
+      </c>
+      <c r="BQ18">
+        <v>1.2648808177487685</v>
+      </c>
+      <c r="BR18">
+        <v>1.2413158773816042</v>
+      </c>
+      <c r="BS18">
+        <v>1.1908433218828212</v>
+      </c>
+      <c r="BT18">
+        <v>1.2320540163371894</v>
+      </c>
+      <c r="BU18">
+        <v>1.2733655070495908</v>
+      </c>
+      <c r="BV18">
+        <v>1.2553168220982474</v>
+      </c>
+      <c r="BW18">
+        <v>1.3313196857134519</v>
+      </c>
+      <c r="BX18">
+        <v>1.4823707965305712</v>
+      </c>
+      <c r="BY18">
+        <v>1.5108738323690509</v>
+      </c>
+      <c r="BZ18">
+        <v>1.5430044024271266</v>
+      </c>
+      <c r="CA18">
+        <v>1.4634503520104758</v>
+      </c>
+      <c r="CB18">
+        <v>1.2788592940351402</v>
+      </c>
+      <c r="CC18">
+        <v>1.2584401406832264</v>
+      </c>
+      <c r="CD18">
+        <v>1.2813676209212654</v>
+      </c>
+      <c r="CE18">
+        <v>1.3031932746511194</v>
+      </c>
+      <c r="CF18">
+        <v>1.3013133249723017</v>
+      </c>
+      <c r="CG18">
+        <v>1.2483695017174505</v>
+      </c>
+      <c r="CH18">
+        <v>1.1968021730840253</v>
+      </c>
+      <c r="CI18">
+        <v>1.1808864243437878</v>
+      </c>
+      <c r="CJ18">
+        <v>1.0638959387800981</v>
+      </c>
+      <c r="CK18">
+        <v>1.0310039135884912</v>
+      </c>
+      <c r="CL18">
+        <v>1.013765847779275</v>
+      </c>
+      <c r="CM18">
+        <v>1.0718117191946344</v>
+      </c>
+      <c r="CN18">
+        <v>1.1407388312573996</v>
+      </c>
+      <c r="CO18">
+        <v>1.0985123139581801</v>
+      </c>
+      <c r="CP18">
+        <v>1.0291680770945253</v>
+      </c>
+      <c r="CQ18">
+        <v>1.0694269530183673</v>
+      </c>
+      <c r="CR18">
+        <v>1.0893587073135484</v>
+      </c>
+      <c r="CS18">
+        <v>1.1101888161233244</v>
+      </c>
+      <c r="CT18">
+        <v>1.1297750016078676</v>
+      </c>
+      <c r="CU18">
+        <v>1.089842860230148</v>
+      </c>
+      <c r="CV18">
+        <v>1.1140082337818948</v>
+      </c>
+      <c r="CW18">
+        <v>1.1383634692249873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:112" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>-2.8593121168749014E-2</v>
+      </c>
+      <c r="C19">
+        <v>-7.6917271659393549E-4</v>
+      </c>
+      <c r="D19">
+        <v>2.1655024612019735E-2</v>
+      </c>
+      <c r="E19">
+        <v>-1.0925441915989986E-2</v>
+      </c>
+      <c r="F19">
+        <v>-6.7823116507007897E-2</v>
+      </c>
+      <c r="G19">
+        <v>-5.1443457439947271E-2</v>
+      </c>
+      <c r="H19">
+        <v>-4.3715498407030484E-2</v>
+      </c>
+      <c r="I19">
+        <v>-7.0214923911832372E-2</v>
+      </c>
+      <c r="J19">
+        <v>-1.4811481870342202E-2</v>
+      </c>
+      <c r="K19">
+        <v>-4.4400388069079977E-2</v>
+      </c>
+      <c r="L19">
+        <v>2.1039152816238138E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.1058260628721728E-2</v>
+      </c>
+      <c r="N19">
+        <v>-1.7805740108500778E-2</v>
+      </c>
+      <c r="O19">
+        <v>-5.7834282390466507E-2</v>
+      </c>
+      <c r="P19">
+        <v>-5.3907442755170454E-2</v>
+      </c>
+      <c r="Q19">
+        <v>-4.8325588748734161E-2</v>
+      </c>
+      <c r="R19">
+        <v>-6.1133923959979519E-3</v>
+      </c>
+      <c r="S19">
+        <v>-4.0165135552359787E-2</v>
+      </c>
+      <c r="T19">
+        <v>-5.3302682970262749E-2</v>
+      </c>
+      <c r="U19">
+        <v>-8.8734539601424967E-3</v>
+      </c>
+      <c r="V19">
+        <v>9.2450963515894102E-2</v>
+      </c>
+      <c r="W19">
+        <v>0.1055303594727246</v>
+      </c>
+      <c r="X19">
+        <v>3.4207680451120881E-2</v>
+      </c>
+      <c r="Y19">
+        <v>8.0580483826945937E-2</v>
+      </c>
+      <c r="Z19">
+        <v>5.3484444180702528E-2</v>
+      </c>
+      <c r="AA19">
+        <v>2.5449590195614213E-2</v>
+      </c>
+      <c r="AB19">
+        <v>8.9390057135032563E-3</v>
+      </c>
+      <c r="AC19">
+        <v>-1.3864681273201285E-4</v>
+      </c>
+      <c r="AD19">
+        <v>9.2466390635919105E-3</v>
+      </c>
+      <c r="AE19">
+        <v>0.18529997657781494</v>
+      </c>
+      <c r="AF19">
+        <v>0.24401900134114674</v>
+      </c>
+      <c r="AG19">
+        <v>0.18759787756972479</v>
+      </c>
+      <c r="AH19">
+        <v>0.10101137512432179</v>
+      </c>
+      <c r="AI19">
+        <v>0.1085419151821565</v>
+      </c>
+      <c r="AJ19">
+        <v>0.17259119896073372</v>
+      </c>
+      <c r="AK19">
+        <v>0.14906303700883783</v>
+      </c>
+      <c r="AL19">
+        <v>0.20343716555102298</v>
+      </c>
+      <c r="AM19">
+        <v>0.21205921730428556</v>
+      </c>
+      <c r="AN19">
+        <v>0.20869397017725133</v>
+      </c>
+      <c r="AO19">
+        <v>0.21199247604812588</v>
+      </c>
+      <c r="AP19">
+        <v>0.22082982767958759</v>
+      </c>
+      <c r="AQ19">
+        <v>9.8365936263518861E-2</v>
+      </c>
+      <c r="AR19">
+        <v>0.11606389952508622</v>
+      </c>
+      <c r="AS19">
+        <v>0.1869517654285362</v>
+      </c>
+      <c r="AT19">
+        <v>0.27058173180999923</v>
+      </c>
+      <c r="AU19">
+        <v>0.30994176880990754</v>
+      </c>
+      <c r="AV19">
+        <v>0.24650942209377158</v>
+      </c>
+      <c r="AW19">
+        <v>0.32505051861494327</v>
+      </c>
+      <c r="AX19">
+        <v>0.32450441336882796</v>
+      </c>
+      <c r="AY19">
+        <v>0.40488189209948622</v>
+      </c>
+      <c r="AZ19">
+        <v>0.52153015020209348</v>
+      </c>
+      <c r="BA19">
+        <v>0.53452618268795393</v>
+      </c>
+      <c r="BB19">
+        <v>0.42860604194375185</v>
+      </c>
+      <c r="BC19">
+        <v>0.45129211389838697</v>
+      </c>
+      <c r="BD19">
+        <v>0.34995901560971876</v>
+      </c>
+      <c r="BE19">
+        <v>0.2956880676972955</v>
+      </c>
+      <c r="BF19">
+        <v>0.21993843202634888</v>
+      </c>
+      <c r="BG19">
+        <v>0.15678543612224183</v>
+      </c>
+      <c r="BH19">
+        <v>0.15642181976507352</v>
+      </c>
+      <c r="BI19">
+        <v>0.1447176244481958</v>
+      </c>
+      <c r="BJ19">
+        <v>0.15148311086246946</v>
+      </c>
+      <c r="BK19">
+        <v>0.10676763404169332</v>
+      </c>
+      <c r="BL19">
+        <v>4.1795761637745343E-2</v>
+      </c>
+      <c r="BM19">
+        <v>7.0476147427287805E-2</v>
+      </c>
+      <c r="BN19">
+        <v>8.9504517666091798E-2</v>
+      </c>
+      <c r="BO19">
+        <v>7.9340286636478297E-2</v>
+      </c>
+      <c r="BP19">
+        <v>0.17067316366929242</v>
+      </c>
+      <c r="BQ19">
+        <v>0.25329821218831672</v>
+      </c>
+      <c r="BR19">
+        <v>0.27365927102425069</v>
+      </c>
+      <c r="BS19">
+        <v>0.22218516757472317</v>
+      </c>
+      <c r="BT19">
+        <v>0.27965909553812007</v>
+      </c>
+      <c r="BU19">
+        <v>0.26918757128986059</v>
+      </c>
+      <c r="BV19">
+        <v>0.25238246384391272</v>
+      </c>
+      <c r="BW19">
+        <v>0.30340886737551043</v>
+      </c>
+      <c r="BX19">
+        <v>0.39807023428894461</v>
+      </c>
+      <c r="BY19">
+        <v>0.45080245249176043</v>
+      </c>
+      <c r="BZ19">
+        <v>0.50704913299984411</v>
+      </c>
+      <c r="CA19">
+        <v>0.48558780071286289</v>
+      </c>
+      <c r="CB19">
+        <v>0.34027942610897011</v>
+      </c>
+      <c r="CC19">
+        <v>0.28679531297753014</v>
+      </c>
+      <c r="CD19">
+        <v>0.2482587801888394</v>
+      </c>
+      <c r="CE19">
+        <v>0.29754398497735446</v>
+      </c>
+      <c r="CF19">
+        <v>0.27744600472109937</v>
+      </c>
+      <c r="CG19">
+        <v>0.26745366699042539</v>
+      </c>
+      <c r="CH19">
+        <v>0.23161937521918474</v>
+      </c>
+      <c r="CI19">
+        <v>0.20302230671690324</v>
+      </c>
+      <c r="CJ19">
+        <v>0.12642972780495287</v>
+      </c>
+      <c r="CK19">
+        <v>9.3137448674551315E-2</v>
+      </c>
+      <c r="CL19">
+        <v>6.383334368130944E-2</v>
+      </c>
+      <c r="CM19">
+        <v>7.8692950230611736E-2</v>
+      </c>
+      <c r="CN19">
+        <v>9.2755066210965742E-2</v>
+      </c>
+      <c r="CO19">
+        <v>5.7336652533997556E-2</v>
+      </c>
+      <c r="CP19">
+        <v>3.9653573307822265E-2</v>
+      </c>
+      <c r="CQ19">
+        <v>7.3689065399577869E-2</v>
+      </c>
+      <c r="CR19">
+        <v>5.6141112950597094E-2</v>
+      </c>
+      <c r="CS19">
+        <v>2.8857686347061984E-2</v>
+      </c>
+      <c r="CT19">
+        <v>3.8480771019239635E-2</v>
+      </c>
+      <c r="CU19">
+        <v>7.4819613650030092E-3</v>
+      </c>
+      <c r="CV19">
+        <v>8.053315646348036E-3</v>
+      </c>
+      <c r="CW19">
+        <v>-4.5149689996551112E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>